--- a/01_基本設計書/01_基本設計書/チーム1/【倉庫】在庫情報一覧（陶）.xlsx
+++ b/01_基本設計書/01_基本設計書/チーム1/【倉庫】在庫情報一覧（陶）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/基本設計書/202210/設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/202210/01_基本設計書/01_基本設計書/チーム1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5072D1-2138-43D9-B28F-0D9E9B595F26}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75381973-0F75-445B-8466-9E313D74519E}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="0" windowWidth="15852" windowHeight="11952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6816" yWindow="288" windowWidth="15852" windowHeight="11952" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>基本設計書</t>
   </si>
@@ -238,12 +238,6 @@
       <t>ケタ</t>
     </rPh>
     <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>更新日時、YYYY/MM/DDで画面表示、YYYYMMDDでDB保存</t>
-  </si>
-  <si>
-    <t>在庫状況、１０桁まで入力</t>
   </si>
   <si>
     <t>検索、</t>
@@ -316,25 +310,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>在庫状況登録画面へ遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -423,10 +398,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>在庫状況登録画面へ遷移する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -608,12 +579,58 @@
   <si>
     <t>半角/全角の区別は画面レイアウトで使用されている文字に依存する。</t>
   </si>
+  <si>
+    <t>更新日時、YYYY/MM/DDで画面表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部・外部指摘修正</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在庫情報登録画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>在庫情報登録画面へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
@@ -622,6 +639,7 @@
     <numFmt numFmtId="181" formatCode="##,###,##0.0##"/>
     <numFmt numFmtId="182" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="183" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -963,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -989,96 +1007,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1101,22 +1041,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,33 +1113,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1221,18 +1125,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1241,9 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,34 +1231,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,97 +1863,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>46355</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>235004</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E7F7D0-E5F7-4475-950A-79ECEC61A6D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="892175" y="3282315"/>
-          <a:ext cx="1034469" cy="1167765"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            </a:rPr>
-            <a:t>社員カウント</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>236855</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1955,74 +1891,6 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="5311775" y="2011680"/>
           <a:ext cx="1460446" cy="1118870"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A455CC8E-4FAA-43BA-9CDD-90574582B8F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1443990" y="2057400"/>
-          <a:ext cx="1333500" cy="1215390"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2692,232 +2560,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>143510</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>97790</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Line 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86379960-5C65-404D-A711-F782C5C464D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3244850" y="3032125"/>
-          <a:ext cx="1082040" cy="357011"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>277495</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>183661</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D015942-C337-4496-92BB-574D3390E26C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2251075" y="3298190"/>
-          <a:ext cx="1033926" cy="1165860"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            </a:rPr>
-            <a:t>入出庫情報</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -3100,228 +2742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>18415</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114024</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>115580</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7001BDF0-0455-4843-A87C-071261DE10C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4247515" y="3583305"/>
-          <a:ext cx="1506865" cy="394335"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-              <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            </a:rPr>
-            <a:t>入出庫情報登録</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-            <a:ea typeface="MS PGothic" panose="020B0600070205080204" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>144462</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138747</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>17039</xdr:colOff>
+      <xdr:colOff>281763</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>65087</xdr:rowOff>
+      <xdr:rowOff>55955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3338,212 +2768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="4620000" flipH="1" flipV="1">
-          <a:off x="4651481" y="2322088"/>
-          <a:ext cx="726440" cy="154517"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>255905</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>42545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A175931-75EA-4AF5-B277-1D45EDCCFBD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4841557" y="3332798"/>
-          <a:ext cx="396875" cy="17780"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>78778</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B853D73-BA57-4C89-B213-3BAC230C7CB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="21240000" flipH="1" flipV="1">
-          <a:off x="3268980" y="3854450"/>
-          <a:ext cx="1038898" cy="49530"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>134620</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12404</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8840767-9835-49BC-ABCF-9D05D2B04807}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="21240000" flipH="1" flipV="1">
-          <a:off x="5773420" y="3728085"/>
-          <a:ext cx="829310" cy="101939"/>
+          <a:off x="4628597" y="2307288"/>
+          <a:ext cx="724554" cy="167739"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4586,14 +3812,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="4" width="3.69921875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="3.69921875" style="42" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="19" customWidth="1"/>
     <col min="7" max="32" width="3.69921875" style="2" customWidth="1"/>
     <col min="33" max="36" width="3.59765625" style="2" customWidth="1"/>
     <col min="37" max="256" width="8.09765625" style="2"/>
@@ -5035,72 +4261,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -5272,123 +4498,123 @@
     </row>
     <row r="11" spans="1:176">
       <c r="A11" s="11"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="14" t="s">
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14" t="s">
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="14" t="s">
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="14" t="s">
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="17"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="13"/>
     </row>
     <row r="12" spans="1:176">
       <c r="A12" s="11"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21" t="s">
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="21" t="s">
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="18" t="s">
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="17"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="13"/>
     </row>
     <row r="13" spans="1:176">
       <c r="A13" s="11"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="17"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="120"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="115"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="13"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
       <c r="A14" s="11"/>
@@ -5620,7 +4846,7 @@
     </row>
     <row r="21" spans="1:32" ht="12.75" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="8"/>
@@ -5688,665 +4914,673 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29" t="s">
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="29" t="s">
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="29" t="s">
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="31"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="107"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="29">
+      <c r="B24" s="105">
         <v>0.1</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32">
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="122">
         <v>44838</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35" t="s">
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="29" t="s">
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="31"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="107"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="31"/>
+      <c r="B25" s="128">
+        <v>1</v>
+      </c>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="122">
+        <v>44839</v>
+      </c>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="126"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="107"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="31"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="107"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="31"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="107"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="31"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="107"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="31"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="107"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="31"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="107"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="31"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="107"/>
+      <c r="AC31" s="105"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="107"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="31"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="106"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="106"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="106"/>
+      <c r="AA32" s="106"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="105"/>
+      <c r="AD32" s="106"/>
+      <c r="AE32" s="107"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="31"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="106"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="106"/>
+      <c r="Y33" s="106"/>
+      <c r="Z33" s="106"/>
+      <c r="AA33" s="106"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="105"/>
+      <c r="AD33" s="106"/>
+      <c r="AE33" s="107"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="31"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="106"/>
+      <c r="AE34" s="107"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="31"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="106"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="105"/>
+      <c r="AD35" s="106"/>
+      <c r="AE35" s="107"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="31"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="106"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="105"/>
+      <c r="AD36" s="106"/>
+      <c r="AE36" s="107"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="31"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="106"/>
+      <c r="S37" s="106"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="106"/>
+      <c r="W37" s="106"/>
+      <c r="X37" s="106"/>
+      <c r="Y37" s="106"/>
+      <c r="Z37" s="106"/>
+      <c r="AA37" s="106"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="105"/>
+      <c r="AD37" s="106"/>
+      <c r="AE37" s="107"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="31"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
+      <c r="S38" s="106"/>
+      <c r="T38" s="106"/>
+      <c r="U38" s="106"/>
+      <c r="V38" s="106"/>
+      <c r="W38" s="106"/>
+      <c r="X38" s="106"/>
+      <c r="Y38" s="106"/>
+      <c r="Z38" s="106"/>
+      <c r="AA38" s="106"/>
+      <c r="AB38" s="107"/>
+      <c r="AC38" s="105"/>
+      <c r="AD38" s="106"/>
+      <c r="AE38" s="107"/>
       <c r="AF38" s="12"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="11"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="31"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
+      <c r="S39" s="106"/>
+      <c r="T39" s="106"/>
+      <c r="U39" s="106"/>
+      <c r="V39" s="106"/>
+      <c r="W39" s="106"/>
+      <c r="X39" s="106"/>
+      <c r="Y39" s="106"/>
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="106"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="105"/>
+      <c r="AD39" s="106"/>
+      <c r="AE39" s="107"/>
       <c r="AF39" s="12"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="11"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="31"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="106"/>
+      <c r="S40" s="106"/>
+      <c r="T40" s="106"/>
+      <c r="U40" s="106"/>
+      <c r="V40" s="106"/>
+      <c r="W40" s="106"/>
+      <c r="X40" s="106"/>
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="106"/>
+      <c r="AA40" s="106"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="105"/>
+      <c r="AD40" s="106"/>
+      <c r="AE40" s="107"/>
       <c r="AF40" s="12"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="41"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="83">
@@ -6418,11 +5652,6 @@
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="J25:AB25"/>
     <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="AD12:AE13"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:AB23"/>
@@ -6433,6 +5662,11 @@
     <mergeCell ref="M11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AD12:AE13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6444,13 +5678,13 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="3.69921875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="3.69921875" style="42" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="19" customWidth="1"/>
     <col min="7" max="33" width="3.69921875" style="2" customWidth="1"/>
     <col min="34" max="37" width="3.59765625" style="2" customWidth="1"/>
     <col min="38" max="256" width="8.09765625" style="2"/>
@@ -6646,204 +5880,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="133"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="14" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="44" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="16"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="112" t="str">
         <f>[1]表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21" t="str">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="118" t="str">
         <f>[2]表紙!M12</f>
         <v xml:space="preserve">ログイン（画面）／在庫情報一覧（画面）／在庫登録（画面）
 </v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="18" t="str">
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="112" t="str">
         <f>[1]表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18" t="str">
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="112" t="str">
         <f>[2]表紙!AD12</f>
         <v>チーム1</v>
       </c>
-      <c r="AG3" s="20"/>
+      <c r="AG3" s="114"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="25"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="117"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="52"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="26"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
@@ -6990,39 +6224,39 @@
       <c r="FU5" s="9"/>
     </row>
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="55"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="29"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="11"/>
@@ -7389,22 +6623,22 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
@@ -7423,22 +6657,22 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
@@ -7457,22 +6691,22 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
@@ -7491,22 +6725,22 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
@@ -7525,22 +6759,22 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
@@ -7559,22 +6793,22 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
@@ -7593,22 +6827,22 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -7628,22 +6862,22 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -7663,22 +6897,22 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -7698,22 +6932,22 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -7733,22 +6967,22 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -7768,22 +7002,22 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -8112,42 +7346,42 @@
       <c r="AG39" s="12"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="41"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="8"/>
@@ -8254,39 +7488,39 @@
       <c r="AG43" s="12"/>
     </row>
     <row r="44" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="39"/>
-      <c r="AB44" s="39"/>
-      <c r="AC44" s="39"/>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="39"/>
-      <c r="AF44" s="39"/>
-      <c r="AG44" s="41"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8311,2177 +7545,2172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B89EA05-CAEB-4A8E-9D7E-33A07BE2DA9C}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN32" sqref="AN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="4" width="3.69921875" style="60" customWidth="1"/>
-    <col min="5" max="6" width="3.69921875" style="128" customWidth="1"/>
-    <col min="7" max="33" width="3.69921875" style="60" customWidth="1"/>
-    <col min="34" max="37" width="3.59765625" style="60" customWidth="1"/>
-    <col min="38" max="256" width="8.09765625" style="60"/>
-    <col min="257" max="289" width="3.69921875" style="60" customWidth="1"/>
-    <col min="290" max="293" width="3.59765625" style="60" customWidth="1"/>
-    <col min="294" max="512" width="8.09765625" style="60"/>
-    <col min="513" max="545" width="3.69921875" style="60" customWidth="1"/>
-    <col min="546" max="549" width="3.59765625" style="60" customWidth="1"/>
-    <col min="550" max="768" width="8.09765625" style="60"/>
-    <col min="769" max="801" width="3.69921875" style="60" customWidth="1"/>
-    <col min="802" max="805" width="3.59765625" style="60" customWidth="1"/>
-    <col min="806" max="1024" width="8.09765625" style="60"/>
-    <col min="1025" max="1057" width="3.69921875" style="60" customWidth="1"/>
-    <col min="1058" max="1061" width="3.59765625" style="60" customWidth="1"/>
-    <col min="1062" max="1280" width="8.09765625" style="60"/>
-    <col min="1281" max="1313" width="3.69921875" style="60" customWidth="1"/>
-    <col min="1314" max="1317" width="3.59765625" style="60" customWidth="1"/>
-    <col min="1318" max="1536" width="8.09765625" style="60"/>
-    <col min="1537" max="1569" width="3.69921875" style="60" customWidth="1"/>
-    <col min="1570" max="1573" width="3.59765625" style="60" customWidth="1"/>
-    <col min="1574" max="1792" width="8.09765625" style="60"/>
-    <col min="1793" max="1825" width="3.69921875" style="60" customWidth="1"/>
-    <col min="1826" max="1829" width="3.59765625" style="60" customWidth="1"/>
-    <col min="1830" max="2048" width="8.09765625" style="60"/>
-    <col min="2049" max="2081" width="3.69921875" style="60" customWidth="1"/>
-    <col min="2082" max="2085" width="3.59765625" style="60" customWidth="1"/>
-    <col min="2086" max="2304" width="8.09765625" style="60"/>
-    <col min="2305" max="2337" width="3.69921875" style="60" customWidth="1"/>
-    <col min="2338" max="2341" width="3.59765625" style="60" customWidth="1"/>
-    <col min="2342" max="2560" width="8.09765625" style="60"/>
-    <col min="2561" max="2593" width="3.69921875" style="60" customWidth="1"/>
-    <col min="2594" max="2597" width="3.59765625" style="60" customWidth="1"/>
-    <col min="2598" max="2816" width="8.09765625" style="60"/>
-    <col min="2817" max="2849" width="3.69921875" style="60" customWidth="1"/>
-    <col min="2850" max="2853" width="3.59765625" style="60" customWidth="1"/>
-    <col min="2854" max="3072" width="8.09765625" style="60"/>
-    <col min="3073" max="3105" width="3.69921875" style="60" customWidth="1"/>
-    <col min="3106" max="3109" width="3.59765625" style="60" customWidth="1"/>
-    <col min="3110" max="3328" width="8.09765625" style="60"/>
-    <col min="3329" max="3361" width="3.69921875" style="60" customWidth="1"/>
-    <col min="3362" max="3365" width="3.59765625" style="60" customWidth="1"/>
-    <col min="3366" max="3584" width="8.09765625" style="60"/>
-    <col min="3585" max="3617" width="3.69921875" style="60" customWidth="1"/>
-    <col min="3618" max="3621" width="3.59765625" style="60" customWidth="1"/>
-    <col min="3622" max="3840" width="8.09765625" style="60"/>
-    <col min="3841" max="3873" width="3.69921875" style="60" customWidth="1"/>
-    <col min="3874" max="3877" width="3.59765625" style="60" customWidth="1"/>
-    <col min="3878" max="4096" width="8.09765625" style="60"/>
-    <col min="4097" max="4129" width="3.69921875" style="60" customWidth="1"/>
-    <col min="4130" max="4133" width="3.59765625" style="60" customWidth="1"/>
-    <col min="4134" max="4352" width="8.09765625" style="60"/>
-    <col min="4353" max="4385" width="3.69921875" style="60" customWidth="1"/>
-    <col min="4386" max="4389" width="3.59765625" style="60" customWidth="1"/>
-    <col min="4390" max="4608" width="8.09765625" style="60"/>
-    <col min="4609" max="4641" width="3.69921875" style="60" customWidth="1"/>
-    <col min="4642" max="4645" width="3.59765625" style="60" customWidth="1"/>
-    <col min="4646" max="4864" width="8.09765625" style="60"/>
-    <col min="4865" max="4897" width="3.69921875" style="60" customWidth="1"/>
-    <col min="4898" max="4901" width="3.59765625" style="60" customWidth="1"/>
-    <col min="4902" max="5120" width="8.09765625" style="60"/>
-    <col min="5121" max="5153" width="3.69921875" style="60" customWidth="1"/>
-    <col min="5154" max="5157" width="3.59765625" style="60" customWidth="1"/>
-    <col min="5158" max="5376" width="8.09765625" style="60"/>
-    <col min="5377" max="5409" width="3.69921875" style="60" customWidth="1"/>
-    <col min="5410" max="5413" width="3.59765625" style="60" customWidth="1"/>
-    <col min="5414" max="5632" width="8.09765625" style="60"/>
-    <col min="5633" max="5665" width="3.69921875" style="60" customWidth="1"/>
-    <col min="5666" max="5669" width="3.59765625" style="60" customWidth="1"/>
-    <col min="5670" max="5888" width="8.09765625" style="60"/>
-    <col min="5889" max="5921" width="3.69921875" style="60" customWidth="1"/>
-    <col min="5922" max="5925" width="3.59765625" style="60" customWidth="1"/>
-    <col min="5926" max="6144" width="8.09765625" style="60"/>
-    <col min="6145" max="6177" width="3.69921875" style="60" customWidth="1"/>
-    <col min="6178" max="6181" width="3.59765625" style="60" customWidth="1"/>
-    <col min="6182" max="6400" width="8.09765625" style="60"/>
-    <col min="6401" max="6433" width="3.69921875" style="60" customWidth="1"/>
-    <col min="6434" max="6437" width="3.59765625" style="60" customWidth="1"/>
-    <col min="6438" max="6656" width="8.09765625" style="60"/>
-    <col min="6657" max="6689" width="3.69921875" style="60" customWidth="1"/>
-    <col min="6690" max="6693" width="3.59765625" style="60" customWidth="1"/>
-    <col min="6694" max="6912" width="8.09765625" style="60"/>
-    <col min="6913" max="6945" width="3.69921875" style="60" customWidth="1"/>
-    <col min="6946" max="6949" width="3.59765625" style="60" customWidth="1"/>
-    <col min="6950" max="7168" width="8.09765625" style="60"/>
-    <col min="7169" max="7201" width="3.69921875" style="60" customWidth="1"/>
-    <col min="7202" max="7205" width="3.59765625" style="60" customWidth="1"/>
-    <col min="7206" max="7424" width="8.09765625" style="60"/>
-    <col min="7425" max="7457" width="3.69921875" style="60" customWidth="1"/>
-    <col min="7458" max="7461" width="3.59765625" style="60" customWidth="1"/>
-    <col min="7462" max="7680" width="8.09765625" style="60"/>
-    <col min="7681" max="7713" width="3.69921875" style="60" customWidth="1"/>
-    <col min="7714" max="7717" width="3.59765625" style="60" customWidth="1"/>
-    <col min="7718" max="7936" width="8.09765625" style="60"/>
-    <col min="7937" max="7969" width="3.69921875" style="60" customWidth="1"/>
-    <col min="7970" max="7973" width="3.59765625" style="60" customWidth="1"/>
-    <col min="7974" max="8192" width="8.09765625" style="60"/>
-    <col min="8193" max="8225" width="3.69921875" style="60" customWidth="1"/>
-    <col min="8226" max="8229" width="3.59765625" style="60" customWidth="1"/>
-    <col min="8230" max="8448" width="8.09765625" style="60"/>
-    <col min="8449" max="8481" width="3.69921875" style="60" customWidth="1"/>
-    <col min="8482" max="8485" width="3.59765625" style="60" customWidth="1"/>
-    <col min="8486" max="8704" width="8.09765625" style="60"/>
-    <col min="8705" max="8737" width="3.69921875" style="60" customWidth="1"/>
-    <col min="8738" max="8741" width="3.59765625" style="60" customWidth="1"/>
-    <col min="8742" max="8960" width="8.09765625" style="60"/>
-    <col min="8961" max="8993" width="3.69921875" style="60" customWidth="1"/>
-    <col min="8994" max="8997" width="3.59765625" style="60" customWidth="1"/>
-    <col min="8998" max="9216" width="8.09765625" style="60"/>
-    <col min="9217" max="9249" width="3.69921875" style="60" customWidth="1"/>
-    <col min="9250" max="9253" width="3.59765625" style="60" customWidth="1"/>
-    <col min="9254" max="9472" width="8.09765625" style="60"/>
-    <col min="9473" max="9505" width="3.69921875" style="60" customWidth="1"/>
-    <col min="9506" max="9509" width="3.59765625" style="60" customWidth="1"/>
-    <col min="9510" max="9728" width="8.09765625" style="60"/>
-    <col min="9729" max="9761" width="3.69921875" style="60" customWidth="1"/>
-    <col min="9762" max="9765" width="3.59765625" style="60" customWidth="1"/>
-    <col min="9766" max="9984" width="8.09765625" style="60"/>
-    <col min="9985" max="10017" width="3.69921875" style="60" customWidth="1"/>
-    <col min="10018" max="10021" width="3.59765625" style="60" customWidth="1"/>
-    <col min="10022" max="10240" width="8.09765625" style="60"/>
-    <col min="10241" max="10273" width="3.69921875" style="60" customWidth="1"/>
-    <col min="10274" max="10277" width="3.59765625" style="60" customWidth="1"/>
-    <col min="10278" max="10496" width="8.09765625" style="60"/>
-    <col min="10497" max="10529" width="3.69921875" style="60" customWidth="1"/>
-    <col min="10530" max="10533" width="3.59765625" style="60" customWidth="1"/>
-    <col min="10534" max="10752" width="8.09765625" style="60"/>
-    <col min="10753" max="10785" width="3.69921875" style="60" customWidth="1"/>
-    <col min="10786" max="10789" width="3.59765625" style="60" customWidth="1"/>
-    <col min="10790" max="11008" width="8.09765625" style="60"/>
-    <col min="11009" max="11041" width="3.69921875" style="60" customWidth="1"/>
-    <col min="11042" max="11045" width="3.59765625" style="60" customWidth="1"/>
-    <col min="11046" max="11264" width="8.09765625" style="60"/>
-    <col min="11265" max="11297" width="3.69921875" style="60" customWidth="1"/>
-    <col min="11298" max="11301" width="3.59765625" style="60" customWidth="1"/>
-    <col min="11302" max="11520" width="8.09765625" style="60"/>
-    <col min="11521" max="11553" width="3.69921875" style="60" customWidth="1"/>
-    <col min="11554" max="11557" width="3.59765625" style="60" customWidth="1"/>
-    <col min="11558" max="11776" width="8.09765625" style="60"/>
-    <col min="11777" max="11809" width="3.69921875" style="60" customWidth="1"/>
-    <col min="11810" max="11813" width="3.59765625" style="60" customWidth="1"/>
-    <col min="11814" max="12032" width="8.09765625" style="60"/>
-    <col min="12033" max="12065" width="3.69921875" style="60" customWidth="1"/>
-    <col min="12066" max="12069" width="3.59765625" style="60" customWidth="1"/>
-    <col min="12070" max="12288" width="8.09765625" style="60"/>
-    <col min="12289" max="12321" width="3.69921875" style="60" customWidth="1"/>
-    <col min="12322" max="12325" width="3.59765625" style="60" customWidth="1"/>
-    <col min="12326" max="12544" width="8.09765625" style="60"/>
-    <col min="12545" max="12577" width="3.69921875" style="60" customWidth="1"/>
-    <col min="12578" max="12581" width="3.59765625" style="60" customWidth="1"/>
-    <col min="12582" max="12800" width="8.09765625" style="60"/>
-    <col min="12801" max="12833" width="3.69921875" style="60" customWidth="1"/>
-    <col min="12834" max="12837" width="3.59765625" style="60" customWidth="1"/>
-    <col min="12838" max="13056" width="8.09765625" style="60"/>
-    <col min="13057" max="13089" width="3.69921875" style="60" customWidth="1"/>
-    <col min="13090" max="13093" width="3.59765625" style="60" customWidth="1"/>
-    <col min="13094" max="13312" width="8.09765625" style="60"/>
-    <col min="13313" max="13345" width="3.69921875" style="60" customWidth="1"/>
-    <col min="13346" max="13349" width="3.59765625" style="60" customWidth="1"/>
-    <col min="13350" max="13568" width="8.09765625" style="60"/>
-    <col min="13569" max="13601" width="3.69921875" style="60" customWidth="1"/>
-    <col min="13602" max="13605" width="3.59765625" style="60" customWidth="1"/>
-    <col min="13606" max="13824" width="8.09765625" style="60"/>
-    <col min="13825" max="13857" width="3.69921875" style="60" customWidth="1"/>
-    <col min="13858" max="13861" width="3.59765625" style="60" customWidth="1"/>
-    <col min="13862" max="14080" width="8.09765625" style="60"/>
-    <col min="14081" max="14113" width="3.69921875" style="60" customWidth="1"/>
-    <col min="14114" max="14117" width="3.59765625" style="60" customWidth="1"/>
-    <col min="14118" max="14336" width="8.09765625" style="60"/>
-    <col min="14337" max="14369" width="3.69921875" style="60" customWidth="1"/>
-    <col min="14370" max="14373" width="3.59765625" style="60" customWidth="1"/>
-    <col min="14374" max="14592" width="8.09765625" style="60"/>
-    <col min="14593" max="14625" width="3.69921875" style="60" customWidth="1"/>
-    <col min="14626" max="14629" width="3.59765625" style="60" customWidth="1"/>
-    <col min="14630" max="14848" width="8.09765625" style="60"/>
-    <col min="14849" max="14881" width="3.69921875" style="60" customWidth="1"/>
-    <col min="14882" max="14885" width="3.59765625" style="60" customWidth="1"/>
-    <col min="14886" max="15104" width="8.09765625" style="60"/>
-    <col min="15105" max="15137" width="3.69921875" style="60" customWidth="1"/>
-    <col min="15138" max="15141" width="3.59765625" style="60" customWidth="1"/>
-    <col min="15142" max="15360" width="8.09765625" style="60"/>
-    <col min="15361" max="15393" width="3.69921875" style="60" customWidth="1"/>
-    <col min="15394" max="15397" width="3.59765625" style="60" customWidth="1"/>
-    <col min="15398" max="15616" width="8.09765625" style="60"/>
-    <col min="15617" max="15649" width="3.69921875" style="60" customWidth="1"/>
-    <col min="15650" max="15653" width="3.59765625" style="60" customWidth="1"/>
-    <col min="15654" max="15872" width="8.09765625" style="60"/>
-    <col min="15873" max="15905" width="3.69921875" style="60" customWidth="1"/>
-    <col min="15906" max="15909" width="3.59765625" style="60" customWidth="1"/>
-    <col min="15910" max="16128" width="8.09765625" style="60"/>
-    <col min="16129" max="16161" width="3.69921875" style="60" customWidth="1"/>
-    <col min="16162" max="16165" width="3.59765625" style="60" customWidth="1"/>
-    <col min="16166" max="16384" width="8.09765625" style="60"/>
+    <col min="1" max="4" width="3.69921875" style="33" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="85" customWidth="1"/>
+    <col min="7" max="33" width="3.69921875" style="33" customWidth="1"/>
+    <col min="34" max="37" width="3.59765625" style="33" customWidth="1"/>
+    <col min="38" max="256" width="8.09765625" style="33"/>
+    <col min="257" max="289" width="3.69921875" style="33" customWidth="1"/>
+    <col min="290" max="293" width="3.59765625" style="33" customWidth="1"/>
+    <col min="294" max="512" width="8.09765625" style="33"/>
+    <col min="513" max="545" width="3.69921875" style="33" customWidth="1"/>
+    <col min="546" max="549" width="3.59765625" style="33" customWidth="1"/>
+    <col min="550" max="768" width="8.09765625" style="33"/>
+    <col min="769" max="801" width="3.69921875" style="33" customWidth="1"/>
+    <col min="802" max="805" width="3.59765625" style="33" customWidth="1"/>
+    <col min="806" max="1024" width="8.09765625" style="33"/>
+    <col min="1025" max="1057" width="3.69921875" style="33" customWidth="1"/>
+    <col min="1058" max="1061" width="3.59765625" style="33" customWidth="1"/>
+    <col min="1062" max="1280" width="8.09765625" style="33"/>
+    <col min="1281" max="1313" width="3.69921875" style="33" customWidth="1"/>
+    <col min="1314" max="1317" width="3.59765625" style="33" customWidth="1"/>
+    <col min="1318" max="1536" width="8.09765625" style="33"/>
+    <col min="1537" max="1569" width="3.69921875" style="33" customWidth="1"/>
+    <col min="1570" max="1573" width="3.59765625" style="33" customWidth="1"/>
+    <col min="1574" max="1792" width="8.09765625" style="33"/>
+    <col min="1793" max="1825" width="3.69921875" style="33" customWidth="1"/>
+    <col min="1826" max="1829" width="3.59765625" style="33" customWidth="1"/>
+    <col min="1830" max="2048" width="8.09765625" style="33"/>
+    <col min="2049" max="2081" width="3.69921875" style="33" customWidth="1"/>
+    <col min="2082" max="2085" width="3.59765625" style="33" customWidth="1"/>
+    <col min="2086" max="2304" width="8.09765625" style="33"/>
+    <col min="2305" max="2337" width="3.69921875" style="33" customWidth="1"/>
+    <col min="2338" max="2341" width="3.59765625" style="33" customWidth="1"/>
+    <col min="2342" max="2560" width="8.09765625" style="33"/>
+    <col min="2561" max="2593" width="3.69921875" style="33" customWidth="1"/>
+    <col min="2594" max="2597" width="3.59765625" style="33" customWidth="1"/>
+    <col min="2598" max="2816" width="8.09765625" style="33"/>
+    <col min="2817" max="2849" width="3.69921875" style="33" customWidth="1"/>
+    <col min="2850" max="2853" width="3.59765625" style="33" customWidth="1"/>
+    <col min="2854" max="3072" width="8.09765625" style="33"/>
+    <col min="3073" max="3105" width="3.69921875" style="33" customWidth="1"/>
+    <col min="3106" max="3109" width="3.59765625" style="33" customWidth="1"/>
+    <col min="3110" max="3328" width="8.09765625" style="33"/>
+    <col min="3329" max="3361" width="3.69921875" style="33" customWidth="1"/>
+    <col min="3362" max="3365" width="3.59765625" style="33" customWidth="1"/>
+    <col min="3366" max="3584" width="8.09765625" style="33"/>
+    <col min="3585" max="3617" width="3.69921875" style="33" customWidth="1"/>
+    <col min="3618" max="3621" width="3.59765625" style="33" customWidth="1"/>
+    <col min="3622" max="3840" width="8.09765625" style="33"/>
+    <col min="3841" max="3873" width="3.69921875" style="33" customWidth="1"/>
+    <col min="3874" max="3877" width="3.59765625" style="33" customWidth="1"/>
+    <col min="3878" max="4096" width="8.09765625" style="33"/>
+    <col min="4097" max="4129" width="3.69921875" style="33" customWidth="1"/>
+    <col min="4130" max="4133" width="3.59765625" style="33" customWidth="1"/>
+    <col min="4134" max="4352" width="8.09765625" style="33"/>
+    <col min="4353" max="4385" width="3.69921875" style="33" customWidth="1"/>
+    <col min="4386" max="4389" width="3.59765625" style="33" customWidth="1"/>
+    <col min="4390" max="4608" width="8.09765625" style="33"/>
+    <col min="4609" max="4641" width="3.69921875" style="33" customWidth="1"/>
+    <col min="4642" max="4645" width="3.59765625" style="33" customWidth="1"/>
+    <col min="4646" max="4864" width="8.09765625" style="33"/>
+    <col min="4865" max="4897" width="3.69921875" style="33" customWidth="1"/>
+    <col min="4898" max="4901" width="3.59765625" style="33" customWidth="1"/>
+    <col min="4902" max="5120" width="8.09765625" style="33"/>
+    <col min="5121" max="5153" width="3.69921875" style="33" customWidth="1"/>
+    <col min="5154" max="5157" width="3.59765625" style="33" customWidth="1"/>
+    <col min="5158" max="5376" width="8.09765625" style="33"/>
+    <col min="5377" max="5409" width="3.69921875" style="33" customWidth="1"/>
+    <col min="5410" max="5413" width="3.59765625" style="33" customWidth="1"/>
+    <col min="5414" max="5632" width="8.09765625" style="33"/>
+    <col min="5633" max="5665" width="3.69921875" style="33" customWidth="1"/>
+    <col min="5666" max="5669" width="3.59765625" style="33" customWidth="1"/>
+    <col min="5670" max="5888" width="8.09765625" style="33"/>
+    <col min="5889" max="5921" width="3.69921875" style="33" customWidth="1"/>
+    <col min="5922" max="5925" width="3.59765625" style="33" customWidth="1"/>
+    <col min="5926" max="6144" width="8.09765625" style="33"/>
+    <col min="6145" max="6177" width="3.69921875" style="33" customWidth="1"/>
+    <col min="6178" max="6181" width="3.59765625" style="33" customWidth="1"/>
+    <col min="6182" max="6400" width="8.09765625" style="33"/>
+    <col min="6401" max="6433" width="3.69921875" style="33" customWidth="1"/>
+    <col min="6434" max="6437" width="3.59765625" style="33" customWidth="1"/>
+    <col min="6438" max="6656" width="8.09765625" style="33"/>
+    <col min="6657" max="6689" width="3.69921875" style="33" customWidth="1"/>
+    <col min="6690" max="6693" width="3.59765625" style="33" customWidth="1"/>
+    <col min="6694" max="6912" width="8.09765625" style="33"/>
+    <col min="6913" max="6945" width="3.69921875" style="33" customWidth="1"/>
+    <col min="6946" max="6949" width="3.59765625" style="33" customWidth="1"/>
+    <col min="6950" max="7168" width="8.09765625" style="33"/>
+    <col min="7169" max="7201" width="3.69921875" style="33" customWidth="1"/>
+    <col min="7202" max="7205" width="3.59765625" style="33" customWidth="1"/>
+    <col min="7206" max="7424" width="8.09765625" style="33"/>
+    <col min="7425" max="7457" width="3.69921875" style="33" customWidth="1"/>
+    <col min="7458" max="7461" width="3.59765625" style="33" customWidth="1"/>
+    <col min="7462" max="7680" width="8.09765625" style="33"/>
+    <col min="7681" max="7713" width="3.69921875" style="33" customWidth="1"/>
+    <col min="7714" max="7717" width="3.59765625" style="33" customWidth="1"/>
+    <col min="7718" max="7936" width="8.09765625" style="33"/>
+    <col min="7937" max="7969" width="3.69921875" style="33" customWidth="1"/>
+    <col min="7970" max="7973" width="3.59765625" style="33" customWidth="1"/>
+    <col min="7974" max="8192" width="8.09765625" style="33"/>
+    <col min="8193" max="8225" width="3.69921875" style="33" customWidth="1"/>
+    <col min="8226" max="8229" width="3.59765625" style="33" customWidth="1"/>
+    <col min="8230" max="8448" width="8.09765625" style="33"/>
+    <col min="8449" max="8481" width="3.69921875" style="33" customWidth="1"/>
+    <col min="8482" max="8485" width="3.59765625" style="33" customWidth="1"/>
+    <col min="8486" max="8704" width="8.09765625" style="33"/>
+    <col min="8705" max="8737" width="3.69921875" style="33" customWidth="1"/>
+    <col min="8738" max="8741" width="3.59765625" style="33" customWidth="1"/>
+    <col min="8742" max="8960" width="8.09765625" style="33"/>
+    <col min="8961" max="8993" width="3.69921875" style="33" customWidth="1"/>
+    <col min="8994" max="8997" width="3.59765625" style="33" customWidth="1"/>
+    <col min="8998" max="9216" width="8.09765625" style="33"/>
+    <col min="9217" max="9249" width="3.69921875" style="33" customWidth="1"/>
+    <col min="9250" max="9253" width="3.59765625" style="33" customWidth="1"/>
+    <col min="9254" max="9472" width="8.09765625" style="33"/>
+    <col min="9473" max="9505" width="3.69921875" style="33" customWidth="1"/>
+    <col min="9506" max="9509" width="3.59765625" style="33" customWidth="1"/>
+    <col min="9510" max="9728" width="8.09765625" style="33"/>
+    <col min="9729" max="9761" width="3.69921875" style="33" customWidth="1"/>
+    <col min="9762" max="9765" width="3.59765625" style="33" customWidth="1"/>
+    <col min="9766" max="9984" width="8.09765625" style="33"/>
+    <col min="9985" max="10017" width="3.69921875" style="33" customWidth="1"/>
+    <col min="10018" max="10021" width="3.59765625" style="33" customWidth="1"/>
+    <col min="10022" max="10240" width="8.09765625" style="33"/>
+    <col min="10241" max="10273" width="3.69921875" style="33" customWidth="1"/>
+    <col min="10274" max="10277" width="3.59765625" style="33" customWidth="1"/>
+    <col min="10278" max="10496" width="8.09765625" style="33"/>
+    <col min="10497" max="10529" width="3.69921875" style="33" customWidth="1"/>
+    <col min="10530" max="10533" width="3.59765625" style="33" customWidth="1"/>
+    <col min="10534" max="10752" width="8.09765625" style="33"/>
+    <col min="10753" max="10785" width="3.69921875" style="33" customWidth="1"/>
+    <col min="10786" max="10789" width="3.59765625" style="33" customWidth="1"/>
+    <col min="10790" max="11008" width="8.09765625" style="33"/>
+    <col min="11009" max="11041" width="3.69921875" style="33" customWidth="1"/>
+    <col min="11042" max="11045" width="3.59765625" style="33" customWidth="1"/>
+    <col min="11046" max="11264" width="8.09765625" style="33"/>
+    <col min="11265" max="11297" width="3.69921875" style="33" customWidth="1"/>
+    <col min="11298" max="11301" width="3.59765625" style="33" customWidth="1"/>
+    <col min="11302" max="11520" width="8.09765625" style="33"/>
+    <col min="11521" max="11553" width="3.69921875" style="33" customWidth="1"/>
+    <col min="11554" max="11557" width="3.59765625" style="33" customWidth="1"/>
+    <col min="11558" max="11776" width="8.09765625" style="33"/>
+    <col min="11777" max="11809" width="3.69921875" style="33" customWidth="1"/>
+    <col min="11810" max="11813" width="3.59765625" style="33" customWidth="1"/>
+    <col min="11814" max="12032" width="8.09765625" style="33"/>
+    <col min="12033" max="12065" width="3.69921875" style="33" customWidth="1"/>
+    <col min="12066" max="12069" width="3.59765625" style="33" customWidth="1"/>
+    <col min="12070" max="12288" width="8.09765625" style="33"/>
+    <col min="12289" max="12321" width="3.69921875" style="33" customWidth="1"/>
+    <col min="12322" max="12325" width="3.59765625" style="33" customWidth="1"/>
+    <col min="12326" max="12544" width="8.09765625" style="33"/>
+    <col min="12545" max="12577" width="3.69921875" style="33" customWidth="1"/>
+    <col min="12578" max="12581" width="3.59765625" style="33" customWidth="1"/>
+    <col min="12582" max="12800" width="8.09765625" style="33"/>
+    <col min="12801" max="12833" width="3.69921875" style="33" customWidth="1"/>
+    <col min="12834" max="12837" width="3.59765625" style="33" customWidth="1"/>
+    <col min="12838" max="13056" width="8.09765625" style="33"/>
+    <col min="13057" max="13089" width="3.69921875" style="33" customWidth="1"/>
+    <col min="13090" max="13093" width="3.59765625" style="33" customWidth="1"/>
+    <col min="13094" max="13312" width="8.09765625" style="33"/>
+    <col min="13313" max="13345" width="3.69921875" style="33" customWidth="1"/>
+    <col min="13346" max="13349" width="3.59765625" style="33" customWidth="1"/>
+    <col min="13350" max="13568" width="8.09765625" style="33"/>
+    <col min="13569" max="13601" width="3.69921875" style="33" customWidth="1"/>
+    <col min="13602" max="13605" width="3.59765625" style="33" customWidth="1"/>
+    <col min="13606" max="13824" width="8.09765625" style="33"/>
+    <col min="13825" max="13857" width="3.69921875" style="33" customWidth="1"/>
+    <col min="13858" max="13861" width="3.59765625" style="33" customWidth="1"/>
+    <col min="13862" max="14080" width="8.09765625" style="33"/>
+    <col min="14081" max="14113" width="3.69921875" style="33" customWidth="1"/>
+    <col min="14114" max="14117" width="3.59765625" style="33" customWidth="1"/>
+    <col min="14118" max="14336" width="8.09765625" style="33"/>
+    <col min="14337" max="14369" width="3.69921875" style="33" customWidth="1"/>
+    <col min="14370" max="14373" width="3.59765625" style="33" customWidth="1"/>
+    <col min="14374" max="14592" width="8.09765625" style="33"/>
+    <col min="14593" max="14625" width="3.69921875" style="33" customWidth="1"/>
+    <col min="14626" max="14629" width="3.59765625" style="33" customWidth="1"/>
+    <col min="14630" max="14848" width="8.09765625" style="33"/>
+    <col min="14849" max="14881" width="3.69921875" style="33" customWidth="1"/>
+    <col min="14882" max="14885" width="3.59765625" style="33" customWidth="1"/>
+    <col min="14886" max="15104" width="8.09765625" style="33"/>
+    <col min="15105" max="15137" width="3.69921875" style="33" customWidth="1"/>
+    <col min="15138" max="15141" width="3.59765625" style="33" customWidth="1"/>
+    <col min="15142" max="15360" width="8.09765625" style="33"/>
+    <col min="15361" max="15393" width="3.69921875" style="33" customWidth="1"/>
+    <col min="15394" max="15397" width="3.59765625" style="33" customWidth="1"/>
+    <col min="15398" max="15616" width="8.09765625" style="33"/>
+    <col min="15617" max="15649" width="3.69921875" style="33" customWidth="1"/>
+    <col min="15650" max="15653" width="3.59765625" style="33" customWidth="1"/>
+    <col min="15654" max="15872" width="8.09765625" style="33"/>
+    <col min="15873" max="15905" width="3.69921875" style="33" customWidth="1"/>
+    <col min="15906" max="15909" width="3.59765625" style="33" customWidth="1"/>
+    <col min="15910" max="16128" width="8.09765625" style="33"/>
+    <col min="16129" max="16161" width="3.69921875" style="33" customWidth="1"/>
+    <col min="16162" max="16165" width="3.59765625" style="33" customWidth="1"/>
+    <col min="16166" max="16384" width="8.09765625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
     </row>
     <row r="2" spans="1:177">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="61" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="61" t="s">
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="64" t="s">
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="61" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="63"/>
+      <c r="AG2" s="137"/>
     </row>
     <row r="3" spans="1:177">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="112" t="str">
         <f>[1]表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="18" t="str">
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="112" t="str">
         <f>[1]表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18" t="s">
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="20"/>
+      <c r="AG3" s="114"/>
     </row>
     <row r="4" spans="1:177">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="25"/>
-    </row>
-    <row r="5" spans="1:177" s="73" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="72"/>
-      <c r="AU5" s="72"/>
-      <c r="AV5" s="72"/>
-      <c r="AW5" s="72"/>
-      <c r="AX5" s="72"/>
-      <c r="AY5" s="72"/>
-      <c r="AZ5" s="72"/>
-      <c r="BA5" s="72"/>
-      <c r="BB5" s="72"/>
-      <c r="BC5" s="72"/>
-      <c r="BD5" s="72"/>
-      <c r="BE5" s="72"/>
-      <c r="BF5" s="72"/>
-      <c r="BG5" s="72"/>
-      <c r="BH5" s="72"/>
-      <c r="BI5" s="72"/>
-      <c r="BJ5" s="72"/>
-      <c r="BK5" s="72"/>
-      <c r="BL5" s="72"/>
-      <c r="BM5" s="72"/>
-      <c r="BN5" s="72"/>
-      <c r="BO5" s="72"/>
-      <c r="BP5" s="72"/>
-      <c r="BQ5" s="72"/>
-      <c r="BR5" s="72"/>
-      <c r="BS5" s="72"/>
-      <c r="BT5" s="72"/>
-      <c r="BU5" s="72"/>
-      <c r="BV5" s="72"/>
-      <c r="BW5" s="72"/>
-      <c r="BX5" s="72"/>
-      <c r="BY5" s="72"/>
-      <c r="BZ5" s="72"/>
-      <c r="CA5" s="72"/>
-      <c r="CB5" s="72"/>
-      <c r="CC5" s="72"/>
-      <c r="CD5" s="72"/>
-      <c r="CE5" s="72"/>
-      <c r="CF5" s="72"/>
-      <c r="CG5" s="72"/>
-      <c r="CH5" s="72"/>
-      <c r="CI5" s="72"/>
-      <c r="CJ5" s="72"/>
-      <c r="CK5" s="72"/>
-      <c r="CL5" s="72"/>
-      <c r="CM5" s="72"/>
-      <c r="CN5" s="72"/>
-      <c r="CO5" s="72"/>
-      <c r="CP5" s="72"/>
-      <c r="CQ5" s="72"/>
-      <c r="CR5" s="72"/>
-      <c r="CS5" s="72"/>
-      <c r="CT5" s="72"/>
-      <c r="CU5" s="72"/>
-      <c r="CV5" s="72"/>
-      <c r="CW5" s="72"/>
-      <c r="CX5" s="72"/>
-      <c r="CY5" s="72"/>
-      <c r="CZ5" s="72"/>
-      <c r="DA5" s="72"/>
-      <c r="DB5" s="72"/>
-      <c r="DC5" s="72"/>
-      <c r="DD5" s="72"/>
-      <c r="DE5" s="72"/>
-      <c r="DF5" s="72"/>
-      <c r="DG5" s="72"/>
-      <c r="DH5" s="72"/>
-      <c r="DI5" s="72"/>
-      <c r="DJ5" s="72"/>
-      <c r="DK5" s="72"/>
-      <c r="DL5" s="72"/>
-      <c r="DM5" s="72"/>
-      <c r="DN5" s="72"/>
-      <c r="DO5" s="72"/>
-      <c r="DP5" s="72"/>
-      <c r="DQ5" s="72"/>
-      <c r="DR5" s="72"/>
-      <c r="DS5" s="72"/>
-      <c r="DT5" s="72"/>
-      <c r="DU5" s="72"/>
-      <c r="DV5" s="72"/>
-      <c r="DW5" s="72"/>
-      <c r="DX5" s="72"/>
-      <c r="DY5" s="72"/>
-      <c r="DZ5" s="72"/>
-      <c r="EA5" s="72"/>
-      <c r="EB5" s="72"/>
-      <c r="EC5" s="72"/>
-      <c r="ED5" s="72"/>
-      <c r="EE5" s="72"/>
-      <c r="EF5" s="72"/>
-      <c r="EG5" s="72"/>
-      <c r="EH5" s="72"/>
-      <c r="EI5" s="72"/>
-      <c r="EJ5" s="72"/>
-      <c r="EK5" s="72"/>
-      <c r="EL5" s="72"/>
-      <c r="EM5" s="72"/>
-      <c r="EN5" s="72"/>
-      <c r="EO5" s="72"/>
-      <c r="EP5" s="72"/>
-      <c r="EQ5" s="72"/>
-      <c r="ER5" s="72"/>
-      <c r="ES5" s="72"/>
-      <c r="ET5" s="72"/>
-      <c r="EU5" s="72"/>
-      <c r="EV5" s="72"/>
-      <c r="EW5" s="72"/>
-      <c r="EX5" s="72"/>
-      <c r="EY5" s="72"/>
-      <c r="EZ5" s="72"/>
-      <c r="FA5" s="72"/>
-      <c r="FB5" s="72"/>
-      <c r="FC5" s="72"/>
-      <c r="FD5" s="72"/>
-      <c r="FE5" s="72"/>
-      <c r="FF5" s="72"/>
-      <c r="FG5" s="72"/>
-      <c r="FH5" s="72"/>
-      <c r="FI5" s="72"/>
-      <c r="FJ5" s="72"/>
-      <c r="FK5" s="72"/>
-      <c r="FL5" s="72"/>
-      <c r="FM5" s="72"/>
-      <c r="FN5" s="72"/>
-      <c r="FO5" s="72"/>
-      <c r="FP5" s="72"/>
-      <c r="FQ5" s="72"/>
-      <c r="FR5" s="72"/>
-      <c r="FS5" s="72"/>
-      <c r="FT5" s="72"/>
-      <c r="FU5" s="72"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="117"/>
+    </row>
+    <row r="5" spans="1:177" s="43" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42"/>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="42"/>
+      <c r="BW5" s="42"/>
+      <c r="BX5" s="42"/>
+      <c r="BY5" s="42"/>
+      <c r="BZ5" s="42"/>
+      <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42"/>
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42"/>
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
+      <c r="CW5" s="42"/>
+      <c r="CX5" s="42"/>
+      <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="42"/>
+      <c r="DC5" s="42"/>
+      <c r="DD5" s="42"/>
+      <c r="DE5" s="42"/>
+      <c r="DF5" s="42"/>
+      <c r="DG5" s="42"/>
+      <c r="DH5" s="42"/>
+      <c r="DI5" s="42"/>
+      <c r="DJ5" s="42"/>
+      <c r="DK5" s="42"/>
+      <c r="DL5" s="42"/>
+      <c r="DM5" s="42"/>
+      <c r="DN5" s="42"/>
+      <c r="DO5" s="42"/>
+      <c r="DP5" s="42"/>
+      <c r="DQ5" s="42"/>
+      <c r="DR5" s="42"/>
+      <c r="DS5" s="42"/>
+      <c r="DT5" s="42"/>
+      <c r="DU5" s="42"/>
+      <c r="DV5" s="42"/>
+      <c r="DW5" s="42"/>
+      <c r="DX5" s="42"/>
+      <c r="DY5" s="42"/>
+      <c r="DZ5" s="42"/>
+      <c r="EA5" s="42"/>
+      <c r="EB5" s="42"/>
+      <c r="EC5" s="42"/>
+      <c r="ED5" s="42"/>
+      <c r="EE5" s="42"/>
+      <c r="EF5" s="42"/>
+      <c r="EG5" s="42"/>
+      <c r="EH5" s="42"/>
+      <c r="EI5" s="42"/>
+      <c r="EJ5" s="42"/>
+      <c r="EK5" s="42"/>
+      <c r="EL5" s="42"/>
+      <c r="EM5" s="42"/>
+      <c r="EN5" s="42"/>
+      <c r="EO5" s="42"/>
+      <c r="EP5" s="42"/>
+      <c r="EQ5" s="42"/>
+      <c r="ER5" s="42"/>
+      <c r="ES5" s="42"/>
+      <c r="ET5" s="42"/>
+      <c r="EU5" s="42"/>
+      <c r="EV5" s="42"/>
+      <c r="EW5" s="42"/>
+      <c r="EX5" s="42"/>
+      <c r="EY5" s="42"/>
+      <c r="EZ5" s="42"/>
+      <c r="FA5" s="42"/>
+      <c r="FB5" s="42"/>
+      <c r="FC5" s="42"/>
+      <c r="FD5" s="42"/>
+      <c r="FE5" s="42"/>
+      <c r="FF5" s="42"/>
+      <c r="FG5" s="42"/>
+      <c r="FH5" s="42"/>
+      <c r="FI5" s="42"/>
+      <c r="FJ5" s="42"/>
+      <c r="FK5" s="42"/>
+      <c r="FL5" s="42"/>
+      <c r="FM5" s="42"/>
+      <c r="FN5" s="42"/>
+      <c r="FO5" s="42"/>
+      <c r="FP5" s="42"/>
+      <c r="FQ5" s="42"/>
+      <c r="FR5" s="42"/>
+      <c r="FS5" s="42"/>
+      <c r="FT5" s="42"/>
+      <c r="FU5" s="42"/>
     </row>
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="76"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="46"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="80" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="79" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="83" t="s">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="84" t="s">
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="85"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="55"/>
     </row>
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="85"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="55"/>
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="80" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="86" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="87" t="s">
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="87" t="s">
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="85"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="55"/>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="85"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="55"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="85"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="55"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="87" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="85"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="55"/>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="85"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="55"/>
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="90" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="141"/>
+      <c r="D14" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88" t="s">
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88" t="s">
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88" t="s">
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88" t="s">
+      <c r="N14" s="139"/>
+      <c r="O14" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="92" t="s">
+      <c r="P14" s="139"/>
+      <c r="Q14" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="93" t="s">
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="94" t="s">
+      <c r="W14" s="142"/>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AG14" s="97"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="58"/>
+      <c r="AG14" s="59"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="90" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="80" t="s">
+      <c r="C15" s="141"/>
+      <c r="D15" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="81" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="81" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="99">
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="146">
         <v>666</v>
       </c>
-      <c r="N15" s="100"/>
-      <c r="O15" s="101" t="s">
+      <c r="N15" s="147"/>
+      <c r="O15" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="92" t="s">
+      <c r="P15" s="149"/>
+      <c r="Q15" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="103" t="s">
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="141"/>
+      <c r="V15" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="104" t="s">
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AB15" s="105" t="s">
+      <c r="AB15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AC15" s="106" t="s">
+      <c r="AC15" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="107" t="s">
+      <c r="AD15" s="150"/>
+      <c r="AE15" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AG15" s="97"/>
+      <c r="AG15" s="59"/>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="112"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="114"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="107"/>
-      <c r="AG16" s="97"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="64"/>
+      <c r="AG16" s="59"/>
     </row>
     <row r="17" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="78"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="107"/>
-      <c r="AG17" s="97"/>
-      <c r="AI17" s="115" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="48"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="64"/>
+      <c r="AG17" s="59"/>
+      <c r="AI17" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="AJ17" s="115" t="s">
+      <c r="AJ17" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="AK17" s="115"/>
-      <c r="AL17" s="115"/>
-      <c r="AM17" s="115"/>
-      <c r="AN17" s="115"/>
-      <c r="AO17" s="115"/>
-      <c r="AP17" s="115"/>
-      <c r="AQ17" s="115"/>
-      <c r="AR17" s="115"/>
-      <c r="AS17" s="115"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
     </row>
     <row r="18" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="78"/>
-      <c r="AD18" s="85"/>
-      <c r="AE18" s="107"/>
-      <c r="AG18" s="97"/>
-      <c r="AI18" s="115"/>
-      <c r="AJ18" s="115" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="48"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="64"/>
+      <c r="AG18" s="59"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+    </row>
+    <row r="19" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="48"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="64"/>
+      <c r="AG19" s="59"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+    </row>
+    <row r="20" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="48"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="64"/>
+      <c r="AG20" s="59"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+    </row>
+    <row r="21" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="48"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="64"/>
+      <c r="AG21" s="59"/>
+      <c r="AI21" s="72"/>
+      <c r="AJ21" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="AK18" s="115"/>
-      <c r="AL18" s="115"/>
-      <c r="AM18" s="115"/>
-      <c r="AN18" s="115"/>
-      <c r="AO18" s="115"/>
-      <c r="AP18" s="115"/>
-      <c r="AQ18" s="115"/>
-      <c r="AR18" s="115"/>
-      <c r="AS18" s="115"/>
-    </row>
-    <row r="19" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="108"/>
-      <c r="AB19" s="78"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="107"/>
-      <c r="AG19" s="97"/>
-      <c r="AI19" s="115"/>
-      <c r="AJ19" s="115" t="s">
+      <c r="AK21" s="72"/>
+      <c r="AL21" s="72"/>
+      <c r="AM21" s="72"/>
+      <c r="AN21" s="72"/>
+      <c r="AO21" s="72"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="72"/>
+      <c r="AR21" s="72"/>
+      <c r="AS21" s="72"/>
+    </row>
+    <row r="22" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="48"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="64"/>
+      <c r="AG22" s="59"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="AK19" s="115"/>
-      <c r="AL19" s="115"/>
-      <c r="AM19" s="115"/>
-      <c r="AN19" s="115"/>
-      <c r="AO19" s="115"/>
-      <c r="AP19" s="115"/>
-      <c r="AQ19" s="115"/>
-      <c r="AR19" s="115"/>
-      <c r="AS19" s="115"/>
-    </row>
-    <row r="20" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="78"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="107"/>
-      <c r="AG20" s="97"/>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="115"/>
-      <c r="AK20" s="115"/>
-      <c r="AL20" s="115"/>
-      <c r="AM20" s="115"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="115"/>
-      <c r="AR20" s="115"/>
-      <c r="AS20" s="115"/>
-    </row>
-    <row r="21" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="78"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="107"/>
-      <c r="AG21" s="97"/>
-      <c r="AI21" s="115"/>
-      <c r="AJ21" s="115" t="s">
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="72"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+    </row>
+    <row r="23" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="48"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="64"/>
+      <c r="AG23" s="59"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="AK21" s="115"/>
-      <c r="AL21" s="115"/>
-      <c r="AM21" s="115"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="115"/>
-      <c r="AP21" s="115"/>
-      <c r="AQ21" s="115"/>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="115"/>
-    </row>
-    <row r="22" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="78"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="107"/>
-      <c r="AG22" s="97"/>
-      <c r="AI22" s="115"/>
-      <c r="AJ22" s="115"/>
-      <c r="AK22" s="115" t="s">
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+    </row>
+    <row r="24" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="48"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="64"/>
+      <c r="AG24" s="59"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="72"/>
+      <c r="AN24" s="72"/>
+      <c r="AO24" s="72"/>
+      <c r="AP24" s="72"/>
+      <c r="AQ24" s="72"/>
+      <c r="AR24" s="72"/>
+      <c r="AS24" s="72"/>
+    </row>
+    <row r="25" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="48"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="64"/>
+      <c r="AG25" s="59"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AL22" s="115"/>
-      <c r="AM22" s="115"/>
-      <c r="AN22" s="115"/>
-      <c r="AO22" s="115"/>
-      <c r="AP22" s="115"/>
-      <c r="AQ22" s="115"/>
-      <c r="AR22" s="115"/>
-      <c r="AS22" s="115"/>
-    </row>
-    <row r="23" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="78"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="107"/>
-      <c r="AG23" s="97"/>
-      <c r="AI23" s="115"/>
-      <c r="AJ23" s="115"/>
-      <c r="AK23" s="116" t="s">
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+    </row>
+    <row r="26" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="48"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="64"/>
+      <c r="AG26" s="59"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="72"/>
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="72"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+    </row>
+    <row r="27" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="48"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="64"/>
+      <c r="AG27" s="59"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="72"/>
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+    </row>
+    <row r="28" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="48"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="64"/>
+      <c r="AG28" s="59"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AL23" s="116"/>
-      <c r="AM23" s="116"/>
-      <c r="AN23" s="116"/>
-      <c r="AO23" s="116"/>
-      <c r="AP23" s="116"/>
-      <c r="AQ23" s="116"/>
-      <c r="AR23" s="115"/>
-      <c r="AS23" s="115"/>
-    </row>
-    <row r="24" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="78"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="107"/>
-      <c r="AG24" s="97"/>
-      <c r="AI24" s="115"/>
-      <c r="AJ24" s="115"/>
-      <c r="AK24" s="115"/>
-      <c r="AL24" s="115"/>
-      <c r="AM24" s="115"/>
-      <c r="AN24" s="115"/>
-      <c r="AO24" s="115"/>
-      <c r="AP24" s="115"/>
-      <c r="AQ24" s="115"/>
-      <c r="AR24" s="115"/>
-      <c r="AS24" s="115"/>
-    </row>
-    <row r="25" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="78"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="107"/>
-      <c r="AG25" s="97"/>
-      <c r="AI25" s="115"/>
-      <c r="AJ25" s="115" t="s">
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="72"/>
+      <c r="AN28" s="72"/>
+      <c r="AO28" s="72"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+    </row>
+    <row r="29" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="48"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="64"/>
+      <c r="AG29" s="59"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="AK25" s="115"/>
-      <c r="AL25" s="115"/>
-      <c r="AM25" s="115"/>
-      <c r="AN25" s="115"/>
-      <c r="AO25" s="115"/>
-      <c r="AP25" s="115"/>
-      <c r="AQ25" s="115"/>
-      <c r="AR25" s="115"/>
-      <c r="AS25" s="115"/>
-    </row>
-    <row r="26" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="108"/>
-      <c r="AB26" s="78"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="107"/>
-      <c r="AG26" s="97"/>
-      <c r="AI26" s="115"/>
-      <c r="AJ26" s="115"/>
-      <c r="AK26" s="115" t="s">
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+    </row>
+    <row r="30" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="48"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="64"/>
+      <c r="AG30" s="59"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="72"/>
+      <c r="AM30" s="72"/>
+      <c r="AN30" s="72"/>
+      <c r="AO30" s="72"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+    </row>
+    <row r="31" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="48"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="64"/>
+      <c r="AG31" s="59"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="AL26" s="115"/>
-      <c r="AM26" s="115"/>
-      <c r="AN26" s="115"/>
-      <c r="AO26" s="115"/>
-      <c r="AP26" s="115"/>
-      <c r="AQ26" s="115"/>
-      <c r="AR26" s="115"/>
-      <c r="AS26" s="115"/>
-    </row>
-    <row r="27" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="108"/>
-      <c r="AB27" s="78"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="107"/>
-      <c r="AG27" s="97"/>
-      <c r="AI27" s="115"/>
-      <c r="AJ27" s="115"/>
-      <c r="AK27" s="115"/>
-      <c r="AL27" s="115"/>
-      <c r="AM27" s="115"/>
-      <c r="AN27" s="115"/>
-      <c r="AO27" s="115"/>
-      <c r="AP27" s="115"/>
-      <c r="AQ27" s="115"/>
-      <c r="AR27" s="115"/>
-      <c r="AS27" s="115"/>
-    </row>
-    <row r="28" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="108"/>
-      <c r="AB28" s="78"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="107"/>
-      <c r="AG28" s="97"/>
-      <c r="AI28" s="115"/>
-      <c r="AJ28" s="115" t="s">
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
+      <c r="AM31" s="72"/>
+      <c r="AN31" s="72"/>
+      <c r="AO31" s="72"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+    </row>
+    <row r="32" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="48"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="64"/>
+      <c r="AG32" s="59"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AK28" s="115"/>
-      <c r="AL28" s="115"/>
-      <c r="AM28" s="115"/>
-      <c r="AN28" s="115"/>
-      <c r="AO28" s="115"/>
-      <c r="AP28" s="115"/>
-      <c r="AQ28" s="115"/>
-      <c r="AR28" s="115"/>
-      <c r="AS28" s="115"/>
-    </row>
-    <row r="29" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="78"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="107"/>
-      <c r="AG29" s="97"/>
-      <c r="AI29" s="115"/>
-      <c r="AJ29" s="115"/>
-      <c r="AK29" s="115" t="s">
+      <c r="AL32" s="72"/>
+      <c r="AM32" s="72"/>
+      <c r="AN32" s="72"/>
+      <c r="AO32" s="72"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+    </row>
+    <row r="33" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A33" s="47"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="48"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="64"/>
+      <c r="AG33" s="59"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="72"/>
+      <c r="AN33" s="72"/>
+      <c r="AO33" s="72"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+    </row>
+    <row r="34" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A34" s="47"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="48"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="64"/>
+      <c r="AG34" s="59"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="AL29" s="115"/>
-      <c r="AM29" s="115"/>
-      <c r="AN29" s="115"/>
-      <c r="AO29" s="115"/>
-      <c r="AP29" s="115"/>
-      <c r="AQ29" s="115"/>
-      <c r="AR29" s="115"/>
-      <c r="AS29" s="115"/>
-    </row>
-    <row r="30" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="108"/>
-      <c r="AB30" s="78"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="107"/>
-      <c r="AG30" s="97"/>
-      <c r="AI30" s="115"/>
-      <c r="AJ30" s="115"/>
-      <c r="AK30" s="115"/>
-      <c r="AL30" s="115"/>
-      <c r="AM30" s="115"/>
-      <c r="AN30" s="115"/>
-      <c r="AO30" s="115"/>
-      <c r="AP30" s="115"/>
-      <c r="AQ30" s="115"/>
-      <c r="AR30" s="115"/>
-      <c r="AS30" s="115"/>
-    </row>
-    <row r="31" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A31" s="77"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="78"/>
-      <c r="AD31" s="85"/>
-      <c r="AE31" s="107"/>
-      <c r="AG31" s="97"/>
-      <c r="AI31" s="115"/>
-      <c r="AJ31" s="115" t="s">
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="72"/>
+      <c r="AM34" s="72"/>
+      <c r="AN34" s="72"/>
+      <c r="AO34" s="72"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+    </row>
+    <row r="35" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A35" s="47"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="48"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="64"/>
+      <c r="AG35" s="59"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="AK31" s="115"/>
-      <c r="AL31" s="115"/>
-      <c r="AM31" s="115"/>
-      <c r="AN31" s="115"/>
-      <c r="AO31" s="115"/>
-      <c r="AP31" s="115"/>
-      <c r="AQ31" s="115"/>
-      <c r="AR31" s="115"/>
-      <c r="AS31" s="115"/>
-    </row>
-    <row r="32" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A32" s="77"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="78"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="107"/>
-      <c r="AG32" s="97"/>
-      <c r="AI32" s="115"/>
-      <c r="AJ32" s="115"/>
-      <c r="AK32" s="115" t="s">
+      <c r="AL35" s="72"/>
+      <c r="AM35" s="72"/>
+      <c r="AN35" s="72"/>
+      <c r="AO35" s="72"/>
+      <c r="AP35" s="72"/>
+      <c r="AQ35" s="72"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+    </row>
+    <row r="36" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A36" s="47"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="48"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="64"/>
+      <c r="AG36" s="59"/>
+    </row>
+    <row r="37" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A37" s="47"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="48"/>
+      <c r="AD37" s="55"/>
+      <c r="AE37" s="64"/>
+      <c r="AG37" s="59"/>
+      <c r="AJ37" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AL32" s="115"/>
-      <c r="AM32" s="115"/>
-      <c r="AN32" s="115"/>
-      <c r="AO32" s="115"/>
-      <c r="AP32" s="115"/>
-      <c r="AQ32" s="115"/>
-      <c r="AR32" s="115"/>
-      <c r="AS32" s="115"/>
-    </row>
-    <row r="33" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A33" s="77"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="108"/>
-      <c r="AB33" s="78"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="107"/>
-      <c r="AG33" s="97"/>
-      <c r="AI33" s="115"/>
-      <c r="AJ33" s="115"/>
-      <c r="AK33" s="115"/>
-      <c r="AL33" s="115"/>
-      <c r="AM33" s="115"/>
-      <c r="AN33" s="115"/>
-      <c r="AO33" s="115"/>
-      <c r="AP33" s="115"/>
-      <c r="AQ33" s="115"/>
-      <c r="AR33" s="115"/>
-      <c r="AS33" s="115"/>
-    </row>
-    <row r="34" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A34" s="77"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="111"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="108"/>
-      <c r="AB34" s="78"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="107"/>
-      <c r="AG34" s="97"/>
-      <c r="AI34" s="115"/>
-      <c r="AJ34" s="115" t="s">
+    </row>
+    <row r="38" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="48"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="64"/>
+      <c r="AG38" s="59"/>
+      <c r="AK38" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A39" s="47"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="65"/>
+      <c r="AB39" s="48"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="64"/>
+      <c r="AG39" s="59"/>
+    </row>
+    <row r="40" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A40" s="47"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="48"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="64"/>
+      <c r="AG40" s="59"/>
+      <c r="AJ40" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AK34" s="115"/>
-      <c r="AL34" s="115"/>
-      <c r="AM34" s="115"/>
-      <c r="AN34" s="115"/>
-      <c r="AO34" s="115"/>
-      <c r="AP34" s="115"/>
-      <c r="AQ34" s="115"/>
-      <c r="AR34" s="115"/>
-      <c r="AS34" s="115"/>
-    </row>
-    <row r="35" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="109"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="78"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="107"/>
-      <c r="AG35" s="97"/>
-      <c r="AI35" s="115"/>
-      <c r="AJ35" s="115"/>
-      <c r="AK35" s="115" t="s">
+    </row>
+    <row r="41" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A41" s="47"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="81"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="AL35" s="115"/>
-      <c r="AM35" s="115"/>
-      <c r="AN35" s="115"/>
-      <c r="AO35" s="115"/>
-      <c r="AP35" s="115"/>
-      <c r="AQ35" s="115"/>
-      <c r="AR35" s="115"/>
-      <c r="AS35" s="115"/>
-    </row>
-    <row r="36" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A36" s="77"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="109"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="108"/>
-      <c r="AB36" s="78"/>
-      <c r="AD36" s="85"/>
-      <c r="AE36" s="107"/>
-      <c r="AG36" s="97"/>
-    </row>
-    <row r="37" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="78"/>
-      <c r="AD37" s="85"/>
-      <c r="AE37" s="107"/>
-      <c r="AG37" s="97"/>
-      <c r="AJ37" s="60" t="s">
+      <c r="AG41" s="59"/>
+      <c r="AK41" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A38" s="77"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="111"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="108"/>
-      <c r="AB38" s="78"/>
-      <c r="AD38" s="85"/>
-      <c r="AE38" s="107"/>
-      <c r="AG38" s="97"/>
-      <c r="AK38" s="60" t="s">
+    <row r="42" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="55"/>
+    </row>
+    <row r="43" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A43" s="47"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="55"/>
+      <c r="AJ43" s="33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="109"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="78"/>
-      <c r="AA39" s="108"/>
-      <c r="AB39" s="78"/>
-      <c r="AD39" s="85"/>
-      <c r="AE39" s="107"/>
-      <c r="AG39" s="97"/>
-    </row>
-    <row r="40" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A40" s="77"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="78"/>
-      <c r="U40" s="109"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="78"/>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="78"/>
-      <c r="AD40" s="85"/>
-      <c r="AE40" s="107"/>
-      <c r="AG40" s="97"/>
-      <c r="AJ40" s="60" t="s">
+    <row r="44" spans="1:45" ht="12.75" customHeight="1">
+      <c r="A44" s="86"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="87"/>
+      <c r="AB44" s="87"/>
+      <c r="AC44" s="87"/>
+      <c r="AD44" s="87"/>
+      <c r="AE44" s="87"/>
+      <c r="AF44" s="87"/>
+      <c r="AG44" s="82"/>
+      <c r="AK44" s="33" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="122"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="119"/>
-      <c r="S41" s="119"/>
-      <c r="T41" s="119"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="119"/>
-      <c r="X41" s="119"/>
-      <c r="Y41" s="119"/>
-      <c r="Z41" s="119"/>
-      <c r="AA41" s="118"/>
-      <c r="AB41" s="119"/>
-      <c r="AC41" s="124"/>
-      <c r="AD41" s="125"/>
-      <c r="AE41" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG41" s="97"/>
-      <c r="AK41" s="60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="78"/>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="78"/>
-      <c r="AA42" s="78"/>
-      <c r="AB42" s="78"/>
-      <c r="AC42" s="78"/>
-      <c r="AD42" s="78"/>
-      <c r="AE42" s="78"/>
-      <c r="AF42" s="78"/>
-      <c r="AG42" s="85"/>
-    </row>
-    <row r="43" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
-      <c r="AD43" s="71"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="85"/>
-      <c r="AJ43" s="60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A44" s="129"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="130"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="130"/>
-      <c r="Q44" s="130"/>
-      <c r="R44" s="130"/>
-      <c r="S44" s="130"/>
-      <c r="T44" s="130"/>
-      <c r="U44" s="130"/>
-      <c r="V44" s="130"/>
-      <c r="W44" s="130"/>
-      <c r="X44" s="130"/>
-      <c r="Y44" s="130"/>
-      <c r="Z44" s="130"/>
-      <c r="AA44" s="130"/>
-      <c r="AB44" s="130"/>
-      <c r="AC44" s="130"/>
-      <c r="AD44" s="130"/>
-      <c r="AE44" s="130"/>
-      <c r="AF44" s="130"/>
-      <c r="AG44" s="125"/>
-      <c r="AK44" s="60" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:P15"/>
@@ -10497,6 +9726,9 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -10523,711 +9755,711 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="132" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.69921875" style="132" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="132" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" width="8.09765625" style="132"/>
-    <col min="257" max="257" width="8.5" style="132" customWidth="1"/>
-    <col min="258" max="258" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="46.69921875" style="132" customWidth="1"/>
-    <col min="260" max="260" width="20.5" style="132" customWidth="1"/>
-    <col min="261" max="261" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="263" max="512" width="8.09765625" style="132"/>
-    <col min="513" max="513" width="8.5" style="132" customWidth="1"/>
-    <col min="514" max="514" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="46.69921875" style="132" customWidth="1"/>
-    <col min="516" max="516" width="20.5" style="132" customWidth="1"/>
-    <col min="517" max="517" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="519" max="768" width="8.09765625" style="132"/>
-    <col min="769" max="769" width="8.5" style="132" customWidth="1"/>
-    <col min="770" max="770" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="46.69921875" style="132" customWidth="1"/>
-    <col min="772" max="772" width="20.5" style="132" customWidth="1"/>
-    <col min="773" max="773" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="775" max="1024" width="8.09765625" style="132"/>
-    <col min="1025" max="1025" width="8.5" style="132" customWidth="1"/>
-    <col min="1026" max="1026" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="46.69921875" style="132" customWidth="1"/>
-    <col min="1028" max="1028" width="20.5" style="132" customWidth="1"/>
-    <col min="1029" max="1029" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1280" width="8.09765625" style="132"/>
-    <col min="1281" max="1281" width="8.5" style="132" customWidth="1"/>
-    <col min="1282" max="1282" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="46.69921875" style="132" customWidth="1"/>
-    <col min="1284" max="1284" width="20.5" style="132" customWidth="1"/>
-    <col min="1285" max="1285" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1536" width="8.09765625" style="132"/>
-    <col min="1537" max="1537" width="8.5" style="132" customWidth="1"/>
-    <col min="1538" max="1538" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="46.69921875" style="132" customWidth="1"/>
-    <col min="1540" max="1540" width="20.5" style="132" customWidth="1"/>
-    <col min="1541" max="1541" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1792" width="8.09765625" style="132"/>
-    <col min="1793" max="1793" width="8.5" style="132" customWidth="1"/>
-    <col min="1794" max="1794" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="46.69921875" style="132" customWidth="1"/>
-    <col min="1796" max="1796" width="20.5" style="132" customWidth="1"/>
-    <col min="1797" max="1797" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="1799" max="2048" width="8.09765625" style="132"/>
-    <col min="2049" max="2049" width="8.5" style="132" customWidth="1"/>
-    <col min="2050" max="2050" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="46.69921875" style="132" customWidth="1"/>
-    <col min="2052" max="2052" width="20.5" style="132" customWidth="1"/>
-    <col min="2053" max="2053" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2304" width="8.09765625" style="132"/>
-    <col min="2305" max="2305" width="8.5" style="132" customWidth="1"/>
-    <col min="2306" max="2306" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="46.69921875" style="132" customWidth="1"/>
-    <col min="2308" max="2308" width="20.5" style="132" customWidth="1"/>
-    <col min="2309" max="2309" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2560" width="8.09765625" style="132"/>
-    <col min="2561" max="2561" width="8.5" style="132" customWidth="1"/>
-    <col min="2562" max="2562" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="46.69921875" style="132" customWidth="1"/>
-    <col min="2564" max="2564" width="20.5" style="132" customWidth="1"/>
-    <col min="2565" max="2565" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2816" width="8.09765625" style="132"/>
-    <col min="2817" max="2817" width="8.5" style="132" customWidth="1"/>
-    <col min="2818" max="2818" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="46.69921875" style="132" customWidth="1"/>
-    <col min="2820" max="2820" width="20.5" style="132" customWidth="1"/>
-    <col min="2821" max="2821" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="2823" max="3072" width="8.09765625" style="132"/>
-    <col min="3073" max="3073" width="8.5" style="132" customWidth="1"/>
-    <col min="3074" max="3074" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="46.69921875" style="132" customWidth="1"/>
-    <col min="3076" max="3076" width="20.5" style="132" customWidth="1"/>
-    <col min="3077" max="3077" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3328" width="8.09765625" style="132"/>
-    <col min="3329" max="3329" width="8.5" style="132" customWidth="1"/>
-    <col min="3330" max="3330" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="46.69921875" style="132" customWidth="1"/>
-    <col min="3332" max="3332" width="20.5" style="132" customWidth="1"/>
-    <col min="3333" max="3333" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3584" width="8.09765625" style="132"/>
-    <col min="3585" max="3585" width="8.5" style="132" customWidth="1"/>
-    <col min="3586" max="3586" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="46.69921875" style="132" customWidth="1"/>
-    <col min="3588" max="3588" width="20.5" style="132" customWidth="1"/>
-    <col min="3589" max="3589" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3840" width="8.09765625" style="132"/>
-    <col min="3841" max="3841" width="8.5" style="132" customWidth="1"/>
-    <col min="3842" max="3842" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="46.69921875" style="132" customWidth="1"/>
-    <col min="3844" max="3844" width="20.5" style="132" customWidth="1"/>
-    <col min="3845" max="3845" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="3847" max="4096" width="8.09765625" style="132"/>
-    <col min="4097" max="4097" width="8.5" style="132" customWidth="1"/>
-    <col min="4098" max="4098" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="46.69921875" style="132" customWidth="1"/>
-    <col min="4100" max="4100" width="20.5" style="132" customWidth="1"/>
-    <col min="4101" max="4101" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4352" width="8.09765625" style="132"/>
-    <col min="4353" max="4353" width="8.5" style="132" customWidth="1"/>
-    <col min="4354" max="4354" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="46.69921875" style="132" customWidth="1"/>
-    <col min="4356" max="4356" width="20.5" style="132" customWidth="1"/>
-    <col min="4357" max="4357" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4608" width="8.09765625" style="132"/>
-    <col min="4609" max="4609" width="8.5" style="132" customWidth="1"/>
-    <col min="4610" max="4610" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="46.69921875" style="132" customWidth="1"/>
-    <col min="4612" max="4612" width="20.5" style="132" customWidth="1"/>
-    <col min="4613" max="4613" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4864" width="8.09765625" style="132"/>
-    <col min="4865" max="4865" width="8.5" style="132" customWidth="1"/>
-    <col min="4866" max="4866" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="46.69921875" style="132" customWidth="1"/>
-    <col min="4868" max="4868" width="20.5" style="132" customWidth="1"/>
-    <col min="4869" max="4869" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="4871" max="5120" width="8.09765625" style="132"/>
-    <col min="5121" max="5121" width="8.5" style="132" customWidth="1"/>
-    <col min="5122" max="5122" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="46.69921875" style="132" customWidth="1"/>
-    <col min="5124" max="5124" width="20.5" style="132" customWidth="1"/>
-    <col min="5125" max="5125" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5376" width="8.09765625" style="132"/>
-    <col min="5377" max="5377" width="8.5" style="132" customWidth="1"/>
-    <col min="5378" max="5378" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="46.69921875" style="132" customWidth="1"/>
-    <col min="5380" max="5380" width="20.5" style="132" customWidth="1"/>
-    <col min="5381" max="5381" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5632" width="8.09765625" style="132"/>
-    <col min="5633" max="5633" width="8.5" style="132" customWidth="1"/>
-    <col min="5634" max="5634" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="46.69921875" style="132" customWidth="1"/>
-    <col min="5636" max="5636" width="20.5" style="132" customWidth="1"/>
-    <col min="5637" max="5637" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5888" width="8.09765625" style="132"/>
-    <col min="5889" max="5889" width="8.5" style="132" customWidth="1"/>
-    <col min="5890" max="5890" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="46.69921875" style="132" customWidth="1"/>
-    <col min="5892" max="5892" width="20.5" style="132" customWidth="1"/>
-    <col min="5893" max="5893" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="5895" max="6144" width="8.09765625" style="132"/>
-    <col min="6145" max="6145" width="8.5" style="132" customWidth="1"/>
-    <col min="6146" max="6146" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="46.69921875" style="132" customWidth="1"/>
-    <col min="6148" max="6148" width="20.5" style="132" customWidth="1"/>
-    <col min="6149" max="6149" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6400" width="8.09765625" style="132"/>
-    <col min="6401" max="6401" width="8.5" style="132" customWidth="1"/>
-    <col min="6402" max="6402" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="46.69921875" style="132" customWidth="1"/>
-    <col min="6404" max="6404" width="20.5" style="132" customWidth="1"/>
-    <col min="6405" max="6405" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6656" width="8.09765625" style="132"/>
-    <col min="6657" max="6657" width="8.5" style="132" customWidth="1"/>
-    <col min="6658" max="6658" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="46.69921875" style="132" customWidth="1"/>
-    <col min="6660" max="6660" width="20.5" style="132" customWidth="1"/>
-    <col min="6661" max="6661" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6912" width="8.09765625" style="132"/>
-    <col min="6913" max="6913" width="8.5" style="132" customWidth="1"/>
-    <col min="6914" max="6914" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="46.69921875" style="132" customWidth="1"/>
-    <col min="6916" max="6916" width="20.5" style="132" customWidth="1"/>
-    <col min="6917" max="6917" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="6919" max="7168" width="8.09765625" style="132"/>
-    <col min="7169" max="7169" width="8.5" style="132" customWidth="1"/>
-    <col min="7170" max="7170" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="46.69921875" style="132" customWidth="1"/>
-    <col min="7172" max="7172" width="20.5" style="132" customWidth="1"/>
-    <col min="7173" max="7173" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7424" width="8.09765625" style="132"/>
-    <col min="7425" max="7425" width="8.5" style="132" customWidth="1"/>
-    <col min="7426" max="7426" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="46.69921875" style="132" customWidth="1"/>
-    <col min="7428" max="7428" width="20.5" style="132" customWidth="1"/>
-    <col min="7429" max="7429" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7680" width="8.09765625" style="132"/>
-    <col min="7681" max="7681" width="8.5" style="132" customWidth="1"/>
-    <col min="7682" max="7682" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="46.69921875" style="132" customWidth="1"/>
-    <col min="7684" max="7684" width="20.5" style="132" customWidth="1"/>
-    <col min="7685" max="7685" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7936" width="8.09765625" style="132"/>
-    <col min="7937" max="7937" width="8.5" style="132" customWidth="1"/>
-    <col min="7938" max="7938" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="46.69921875" style="132" customWidth="1"/>
-    <col min="7940" max="7940" width="20.5" style="132" customWidth="1"/>
-    <col min="7941" max="7941" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="7943" max="8192" width="8.09765625" style="132"/>
-    <col min="8193" max="8193" width="8.5" style="132" customWidth="1"/>
-    <col min="8194" max="8194" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="46.69921875" style="132" customWidth="1"/>
-    <col min="8196" max="8196" width="20.5" style="132" customWidth="1"/>
-    <col min="8197" max="8197" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8448" width="8.09765625" style="132"/>
-    <col min="8449" max="8449" width="8.5" style="132" customWidth="1"/>
-    <col min="8450" max="8450" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="46.69921875" style="132" customWidth="1"/>
-    <col min="8452" max="8452" width="20.5" style="132" customWidth="1"/>
-    <col min="8453" max="8453" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8704" width="8.09765625" style="132"/>
-    <col min="8705" max="8705" width="8.5" style="132" customWidth="1"/>
-    <col min="8706" max="8706" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="46.69921875" style="132" customWidth="1"/>
-    <col min="8708" max="8708" width="20.5" style="132" customWidth="1"/>
-    <col min="8709" max="8709" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8960" width="8.09765625" style="132"/>
-    <col min="8961" max="8961" width="8.5" style="132" customWidth="1"/>
-    <col min="8962" max="8962" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="46.69921875" style="132" customWidth="1"/>
-    <col min="8964" max="8964" width="20.5" style="132" customWidth="1"/>
-    <col min="8965" max="8965" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="8967" max="9216" width="8.09765625" style="132"/>
-    <col min="9217" max="9217" width="8.5" style="132" customWidth="1"/>
-    <col min="9218" max="9218" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="46.69921875" style="132" customWidth="1"/>
-    <col min="9220" max="9220" width="20.5" style="132" customWidth="1"/>
-    <col min="9221" max="9221" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9472" width="8.09765625" style="132"/>
-    <col min="9473" max="9473" width="8.5" style="132" customWidth="1"/>
-    <col min="9474" max="9474" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="46.69921875" style="132" customWidth="1"/>
-    <col min="9476" max="9476" width="20.5" style="132" customWidth="1"/>
-    <col min="9477" max="9477" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9728" width="8.09765625" style="132"/>
-    <col min="9729" max="9729" width="8.5" style="132" customWidth="1"/>
-    <col min="9730" max="9730" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="46.69921875" style="132" customWidth="1"/>
-    <col min="9732" max="9732" width="20.5" style="132" customWidth="1"/>
-    <col min="9733" max="9733" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9984" width="8.09765625" style="132"/>
-    <col min="9985" max="9985" width="8.5" style="132" customWidth="1"/>
-    <col min="9986" max="9986" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="46.69921875" style="132" customWidth="1"/>
-    <col min="9988" max="9988" width="20.5" style="132" customWidth="1"/>
-    <col min="9989" max="9989" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="9991" max="10240" width="8.09765625" style="132"/>
-    <col min="10241" max="10241" width="8.5" style="132" customWidth="1"/>
-    <col min="10242" max="10242" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="46.69921875" style="132" customWidth="1"/>
-    <col min="10244" max="10244" width="20.5" style="132" customWidth="1"/>
-    <col min="10245" max="10245" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10496" width="8.09765625" style="132"/>
-    <col min="10497" max="10497" width="8.5" style="132" customWidth="1"/>
-    <col min="10498" max="10498" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="46.69921875" style="132" customWidth="1"/>
-    <col min="10500" max="10500" width="20.5" style="132" customWidth="1"/>
-    <col min="10501" max="10501" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10752" width="8.09765625" style="132"/>
-    <col min="10753" max="10753" width="8.5" style="132" customWidth="1"/>
-    <col min="10754" max="10754" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="46.69921875" style="132" customWidth="1"/>
-    <col min="10756" max="10756" width="20.5" style="132" customWidth="1"/>
-    <col min="10757" max="10757" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="10759" max="11008" width="8.09765625" style="132"/>
-    <col min="11009" max="11009" width="8.5" style="132" customWidth="1"/>
-    <col min="11010" max="11010" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="46.69921875" style="132" customWidth="1"/>
-    <col min="11012" max="11012" width="20.5" style="132" customWidth="1"/>
-    <col min="11013" max="11013" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11264" width="8.09765625" style="132"/>
-    <col min="11265" max="11265" width="8.5" style="132" customWidth="1"/>
-    <col min="11266" max="11266" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="46.69921875" style="132" customWidth="1"/>
-    <col min="11268" max="11268" width="20.5" style="132" customWidth="1"/>
-    <col min="11269" max="11269" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11520" width="8.09765625" style="132"/>
-    <col min="11521" max="11521" width="8.5" style="132" customWidth="1"/>
-    <col min="11522" max="11522" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="46.69921875" style="132" customWidth="1"/>
-    <col min="11524" max="11524" width="20.5" style="132" customWidth="1"/>
-    <col min="11525" max="11525" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11776" width="8.09765625" style="132"/>
-    <col min="11777" max="11777" width="8.5" style="132" customWidth="1"/>
-    <col min="11778" max="11778" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="46.69921875" style="132" customWidth="1"/>
-    <col min="11780" max="11780" width="20.5" style="132" customWidth="1"/>
-    <col min="11781" max="11781" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="11783" max="12032" width="8.09765625" style="132"/>
-    <col min="12033" max="12033" width="8.5" style="132" customWidth="1"/>
-    <col min="12034" max="12034" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="46.69921875" style="132" customWidth="1"/>
-    <col min="12036" max="12036" width="20.5" style="132" customWidth="1"/>
-    <col min="12037" max="12037" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12288" width="8.09765625" style="132"/>
-    <col min="12289" max="12289" width="8.5" style="132" customWidth="1"/>
-    <col min="12290" max="12290" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="46.69921875" style="132" customWidth="1"/>
-    <col min="12292" max="12292" width="20.5" style="132" customWidth="1"/>
-    <col min="12293" max="12293" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12544" width="8.09765625" style="132"/>
-    <col min="12545" max="12545" width="8.5" style="132" customWidth="1"/>
-    <col min="12546" max="12546" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="46.69921875" style="132" customWidth="1"/>
-    <col min="12548" max="12548" width="20.5" style="132" customWidth="1"/>
-    <col min="12549" max="12549" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12800" width="8.09765625" style="132"/>
-    <col min="12801" max="12801" width="8.5" style="132" customWidth="1"/>
-    <col min="12802" max="12802" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="46.69921875" style="132" customWidth="1"/>
-    <col min="12804" max="12804" width="20.5" style="132" customWidth="1"/>
-    <col min="12805" max="12805" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="12807" max="13056" width="8.09765625" style="132"/>
-    <col min="13057" max="13057" width="8.5" style="132" customWidth="1"/>
-    <col min="13058" max="13058" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="46.69921875" style="132" customWidth="1"/>
-    <col min="13060" max="13060" width="20.5" style="132" customWidth="1"/>
-    <col min="13061" max="13061" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13312" width="8.09765625" style="132"/>
-    <col min="13313" max="13313" width="8.5" style="132" customWidth="1"/>
-    <col min="13314" max="13314" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="46.69921875" style="132" customWidth="1"/>
-    <col min="13316" max="13316" width="20.5" style="132" customWidth="1"/>
-    <col min="13317" max="13317" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13568" width="8.09765625" style="132"/>
-    <col min="13569" max="13569" width="8.5" style="132" customWidth="1"/>
-    <col min="13570" max="13570" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="46.69921875" style="132" customWidth="1"/>
-    <col min="13572" max="13572" width="20.5" style="132" customWidth="1"/>
-    <col min="13573" max="13573" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13824" width="8.09765625" style="132"/>
-    <col min="13825" max="13825" width="8.5" style="132" customWidth="1"/>
-    <col min="13826" max="13826" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="46.69921875" style="132" customWidth="1"/>
-    <col min="13828" max="13828" width="20.5" style="132" customWidth="1"/>
-    <col min="13829" max="13829" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="13831" max="14080" width="8.09765625" style="132"/>
-    <col min="14081" max="14081" width="8.5" style="132" customWidth="1"/>
-    <col min="14082" max="14082" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="46.69921875" style="132" customWidth="1"/>
-    <col min="14084" max="14084" width="20.5" style="132" customWidth="1"/>
-    <col min="14085" max="14085" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14336" width="8.09765625" style="132"/>
-    <col min="14337" max="14337" width="8.5" style="132" customWidth="1"/>
-    <col min="14338" max="14338" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="46.69921875" style="132" customWidth="1"/>
-    <col min="14340" max="14340" width="20.5" style="132" customWidth="1"/>
-    <col min="14341" max="14341" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14592" width="8.09765625" style="132"/>
-    <col min="14593" max="14593" width="8.5" style="132" customWidth="1"/>
-    <col min="14594" max="14594" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="46.69921875" style="132" customWidth="1"/>
-    <col min="14596" max="14596" width="20.5" style="132" customWidth="1"/>
-    <col min="14597" max="14597" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14848" width="8.09765625" style="132"/>
-    <col min="14849" max="14849" width="8.5" style="132" customWidth="1"/>
-    <col min="14850" max="14850" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="46.69921875" style="132" customWidth="1"/>
-    <col min="14852" max="14852" width="20.5" style="132" customWidth="1"/>
-    <col min="14853" max="14853" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="14855" max="15104" width="8.09765625" style="132"/>
-    <col min="15105" max="15105" width="8.5" style="132" customWidth="1"/>
-    <col min="15106" max="15106" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="46.69921875" style="132" customWidth="1"/>
-    <col min="15108" max="15108" width="20.5" style="132" customWidth="1"/>
-    <col min="15109" max="15109" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15360" width="8.09765625" style="132"/>
-    <col min="15361" max="15361" width="8.5" style="132" customWidth="1"/>
-    <col min="15362" max="15362" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="46.69921875" style="132" customWidth="1"/>
-    <col min="15364" max="15364" width="20.5" style="132" customWidth="1"/>
-    <col min="15365" max="15365" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15616" width="8.09765625" style="132"/>
-    <col min="15617" max="15617" width="8.5" style="132" customWidth="1"/>
-    <col min="15618" max="15618" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="46.69921875" style="132" customWidth="1"/>
-    <col min="15620" max="15620" width="20.5" style="132" customWidth="1"/>
-    <col min="15621" max="15621" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15872" width="8.09765625" style="132"/>
-    <col min="15873" max="15873" width="8.5" style="132" customWidth="1"/>
-    <col min="15874" max="15874" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="46.69921875" style="132" customWidth="1"/>
-    <col min="15876" max="15876" width="20.5" style="132" customWidth="1"/>
-    <col min="15877" max="15877" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="15879" max="16128" width="8.09765625" style="132"/>
-    <col min="16129" max="16129" width="8.5" style="132" customWidth="1"/>
-    <col min="16130" max="16130" width="4.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="46.69921875" style="132" customWidth="1"/>
-    <col min="16132" max="16132" width="20.5" style="132" customWidth="1"/>
-    <col min="16133" max="16133" width="9.69921875" style="132" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="16.3984375" style="132" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16384" width="8.09765625" style="132"/>
+    <col min="1" max="1" width="8.5" style="89" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.69921875" style="89" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="89" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="7" max="256" width="8.09765625" style="89"/>
+    <col min="257" max="257" width="8.5" style="89" customWidth="1"/>
+    <col min="258" max="258" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="46.69921875" style="89" customWidth="1"/>
+    <col min="260" max="260" width="20.5" style="89" customWidth="1"/>
+    <col min="261" max="261" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="263" max="512" width="8.09765625" style="89"/>
+    <col min="513" max="513" width="8.5" style="89" customWidth="1"/>
+    <col min="514" max="514" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="46.69921875" style="89" customWidth="1"/>
+    <col min="516" max="516" width="20.5" style="89" customWidth="1"/>
+    <col min="517" max="517" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="519" max="768" width="8.09765625" style="89"/>
+    <col min="769" max="769" width="8.5" style="89" customWidth="1"/>
+    <col min="770" max="770" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="46.69921875" style="89" customWidth="1"/>
+    <col min="772" max="772" width="20.5" style="89" customWidth="1"/>
+    <col min="773" max="773" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="775" max="1024" width="8.09765625" style="89"/>
+    <col min="1025" max="1025" width="8.5" style="89" customWidth="1"/>
+    <col min="1026" max="1026" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="46.69921875" style="89" customWidth="1"/>
+    <col min="1028" max="1028" width="20.5" style="89" customWidth="1"/>
+    <col min="1029" max="1029" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1280" width="8.09765625" style="89"/>
+    <col min="1281" max="1281" width="8.5" style="89" customWidth="1"/>
+    <col min="1282" max="1282" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="46.69921875" style="89" customWidth="1"/>
+    <col min="1284" max="1284" width="20.5" style="89" customWidth="1"/>
+    <col min="1285" max="1285" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1536" width="8.09765625" style="89"/>
+    <col min="1537" max="1537" width="8.5" style="89" customWidth="1"/>
+    <col min="1538" max="1538" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="46.69921875" style="89" customWidth="1"/>
+    <col min="1540" max="1540" width="20.5" style="89" customWidth="1"/>
+    <col min="1541" max="1541" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1792" width="8.09765625" style="89"/>
+    <col min="1793" max="1793" width="8.5" style="89" customWidth="1"/>
+    <col min="1794" max="1794" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="46.69921875" style="89" customWidth="1"/>
+    <col min="1796" max="1796" width="20.5" style="89" customWidth="1"/>
+    <col min="1797" max="1797" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2048" width="8.09765625" style="89"/>
+    <col min="2049" max="2049" width="8.5" style="89" customWidth="1"/>
+    <col min="2050" max="2050" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="46.69921875" style="89" customWidth="1"/>
+    <col min="2052" max="2052" width="20.5" style="89" customWidth="1"/>
+    <col min="2053" max="2053" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2304" width="8.09765625" style="89"/>
+    <col min="2305" max="2305" width="8.5" style="89" customWidth="1"/>
+    <col min="2306" max="2306" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="46.69921875" style="89" customWidth="1"/>
+    <col min="2308" max="2308" width="20.5" style="89" customWidth="1"/>
+    <col min="2309" max="2309" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2560" width="8.09765625" style="89"/>
+    <col min="2561" max="2561" width="8.5" style="89" customWidth="1"/>
+    <col min="2562" max="2562" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="46.69921875" style="89" customWidth="1"/>
+    <col min="2564" max="2564" width="20.5" style="89" customWidth="1"/>
+    <col min="2565" max="2565" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2816" width="8.09765625" style="89"/>
+    <col min="2817" max="2817" width="8.5" style="89" customWidth="1"/>
+    <col min="2818" max="2818" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="46.69921875" style="89" customWidth="1"/>
+    <col min="2820" max="2820" width="20.5" style="89" customWidth="1"/>
+    <col min="2821" max="2821" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3072" width="8.09765625" style="89"/>
+    <col min="3073" max="3073" width="8.5" style="89" customWidth="1"/>
+    <col min="3074" max="3074" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="46.69921875" style="89" customWidth="1"/>
+    <col min="3076" max="3076" width="20.5" style="89" customWidth="1"/>
+    <col min="3077" max="3077" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3328" width="8.09765625" style="89"/>
+    <col min="3329" max="3329" width="8.5" style="89" customWidth="1"/>
+    <col min="3330" max="3330" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="46.69921875" style="89" customWidth="1"/>
+    <col min="3332" max="3332" width="20.5" style="89" customWidth="1"/>
+    <col min="3333" max="3333" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3584" width="8.09765625" style="89"/>
+    <col min="3585" max="3585" width="8.5" style="89" customWidth="1"/>
+    <col min="3586" max="3586" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="46.69921875" style="89" customWidth="1"/>
+    <col min="3588" max="3588" width="20.5" style="89" customWidth="1"/>
+    <col min="3589" max="3589" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3840" width="8.09765625" style="89"/>
+    <col min="3841" max="3841" width="8.5" style="89" customWidth="1"/>
+    <col min="3842" max="3842" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="46.69921875" style="89" customWidth="1"/>
+    <col min="3844" max="3844" width="20.5" style="89" customWidth="1"/>
+    <col min="3845" max="3845" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4096" width="8.09765625" style="89"/>
+    <col min="4097" max="4097" width="8.5" style="89" customWidth="1"/>
+    <col min="4098" max="4098" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="46.69921875" style="89" customWidth="1"/>
+    <col min="4100" max="4100" width="20.5" style="89" customWidth="1"/>
+    <col min="4101" max="4101" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4352" width="8.09765625" style="89"/>
+    <col min="4353" max="4353" width="8.5" style="89" customWidth="1"/>
+    <col min="4354" max="4354" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="46.69921875" style="89" customWidth="1"/>
+    <col min="4356" max="4356" width="20.5" style="89" customWidth="1"/>
+    <col min="4357" max="4357" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4608" width="8.09765625" style="89"/>
+    <col min="4609" max="4609" width="8.5" style="89" customWidth="1"/>
+    <col min="4610" max="4610" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="46.69921875" style="89" customWidth="1"/>
+    <col min="4612" max="4612" width="20.5" style="89" customWidth="1"/>
+    <col min="4613" max="4613" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4864" width="8.09765625" style="89"/>
+    <col min="4865" max="4865" width="8.5" style="89" customWidth="1"/>
+    <col min="4866" max="4866" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="46.69921875" style="89" customWidth="1"/>
+    <col min="4868" max="4868" width="20.5" style="89" customWidth="1"/>
+    <col min="4869" max="4869" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5120" width="8.09765625" style="89"/>
+    <col min="5121" max="5121" width="8.5" style="89" customWidth="1"/>
+    <col min="5122" max="5122" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="46.69921875" style="89" customWidth="1"/>
+    <col min="5124" max="5124" width="20.5" style="89" customWidth="1"/>
+    <col min="5125" max="5125" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5376" width="8.09765625" style="89"/>
+    <col min="5377" max="5377" width="8.5" style="89" customWidth="1"/>
+    <col min="5378" max="5378" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="46.69921875" style="89" customWidth="1"/>
+    <col min="5380" max="5380" width="20.5" style="89" customWidth="1"/>
+    <col min="5381" max="5381" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5632" width="8.09765625" style="89"/>
+    <col min="5633" max="5633" width="8.5" style="89" customWidth="1"/>
+    <col min="5634" max="5634" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="46.69921875" style="89" customWidth="1"/>
+    <col min="5636" max="5636" width="20.5" style="89" customWidth="1"/>
+    <col min="5637" max="5637" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5888" width="8.09765625" style="89"/>
+    <col min="5889" max="5889" width="8.5" style="89" customWidth="1"/>
+    <col min="5890" max="5890" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="46.69921875" style="89" customWidth="1"/>
+    <col min="5892" max="5892" width="20.5" style="89" customWidth="1"/>
+    <col min="5893" max="5893" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6144" width="8.09765625" style="89"/>
+    <col min="6145" max="6145" width="8.5" style="89" customWidth="1"/>
+    <col min="6146" max="6146" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="46.69921875" style="89" customWidth="1"/>
+    <col min="6148" max="6148" width="20.5" style="89" customWidth="1"/>
+    <col min="6149" max="6149" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6400" width="8.09765625" style="89"/>
+    <col min="6401" max="6401" width="8.5" style="89" customWidth="1"/>
+    <col min="6402" max="6402" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="46.69921875" style="89" customWidth="1"/>
+    <col min="6404" max="6404" width="20.5" style="89" customWidth="1"/>
+    <col min="6405" max="6405" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6656" width="8.09765625" style="89"/>
+    <col min="6657" max="6657" width="8.5" style="89" customWidth="1"/>
+    <col min="6658" max="6658" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="46.69921875" style="89" customWidth="1"/>
+    <col min="6660" max="6660" width="20.5" style="89" customWidth="1"/>
+    <col min="6661" max="6661" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6912" width="8.09765625" style="89"/>
+    <col min="6913" max="6913" width="8.5" style="89" customWidth="1"/>
+    <col min="6914" max="6914" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="46.69921875" style="89" customWidth="1"/>
+    <col min="6916" max="6916" width="20.5" style="89" customWidth="1"/>
+    <col min="6917" max="6917" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7168" width="8.09765625" style="89"/>
+    <col min="7169" max="7169" width="8.5" style="89" customWidth="1"/>
+    <col min="7170" max="7170" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="46.69921875" style="89" customWidth="1"/>
+    <col min="7172" max="7172" width="20.5" style="89" customWidth="1"/>
+    <col min="7173" max="7173" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7424" width="8.09765625" style="89"/>
+    <col min="7425" max="7425" width="8.5" style="89" customWidth="1"/>
+    <col min="7426" max="7426" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="46.69921875" style="89" customWidth="1"/>
+    <col min="7428" max="7428" width="20.5" style="89" customWidth="1"/>
+    <col min="7429" max="7429" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7680" width="8.09765625" style="89"/>
+    <col min="7681" max="7681" width="8.5" style="89" customWidth="1"/>
+    <col min="7682" max="7682" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="46.69921875" style="89" customWidth="1"/>
+    <col min="7684" max="7684" width="20.5" style="89" customWidth="1"/>
+    <col min="7685" max="7685" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7936" width="8.09765625" style="89"/>
+    <col min="7937" max="7937" width="8.5" style="89" customWidth="1"/>
+    <col min="7938" max="7938" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="46.69921875" style="89" customWidth="1"/>
+    <col min="7940" max="7940" width="20.5" style="89" customWidth="1"/>
+    <col min="7941" max="7941" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8192" width="8.09765625" style="89"/>
+    <col min="8193" max="8193" width="8.5" style="89" customWidth="1"/>
+    <col min="8194" max="8194" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="46.69921875" style="89" customWidth="1"/>
+    <col min="8196" max="8196" width="20.5" style="89" customWidth="1"/>
+    <col min="8197" max="8197" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8448" width="8.09765625" style="89"/>
+    <col min="8449" max="8449" width="8.5" style="89" customWidth="1"/>
+    <col min="8450" max="8450" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="46.69921875" style="89" customWidth="1"/>
+    <col min="8452" max="8452" width="20.5" style="89" customWidth="1"/>
+    <col min="8453" max="8453" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8704" width="8.09765625" style="89"/>
+    <col min="8705" max="8705" width="8.5" style="89" customWidth="1"/>
+    <col min="8706" max="8706" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="46.69921875" style="89" customWidth="1"/>
+    <col min="8708" max="8708" width="20.5" style="89" customWidth="1"/>
+    <col min="8709" max="8709" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8960" width="8.09765625" style="89"/>
+    <col min="8961" max="8961" width="8.5" style="89" customWidth="1"/>
+    <col min="8962" max="8962" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="46.69921875" style="89" customWidth="1"/>
+    <col min="8964" max="8964" width="20.5" style="89" customWidth="1"/>
+    <col min="8965" max="8965" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9216" width="8.09765625" style="89"/>
+    <col min="9217" max="9217" width="8.5" style="89" customWidth="1"/>
+    <col min="9218" max="9218" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="46.69921875" style="89" customWidth="1"/>
+    <col min="9220" max="9220" width="20.5" style="89" customWidth="1"/>
+    <col min="9221" max="9221" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9472" width="8.09765625" style="89"/>
+    <col min="9473" max="9473" width="8.5" style="89" customWidth="1"/>
+    <col min="9474" max="9474" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="46.69921875" style="89" customWidth="1"/>
+    <col min="9476" max="9476" width="20.5" style="89" customWidth="1"/>
+    <col min="9477" max="9477" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9728" width="8.09765625" style="89"/>
+    <col min="9729" max="9729" width="8.5" style="89" customWidth="1"/>
+    <col min="9730" max="9730" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="46.69921875" style="89" customWidth="1"/>
+    <col min="9732" max="9732" width="20.5" style="89" customWidth="1"/>
+    <col min="9733" max="9733" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9984" width="8.09765625" style="89"/>
+    <col min="9985" max="9985" width="8.5" style="89" customWidth="1"/>
+    <col min="9986" max="9986" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="46.69921875" style="89" customWidth="1"/>
+    <col min="9988" max="9988" width="20.5" style="89" customWidth="1"/>
+    <col min="9989" max="9989" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10240" width="8.09765625" style="89"/>
+    <col min="10241" max="10241" width="8.5" style="89" customWidth="1"/>
+    <col min="10242" max="10242" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="46.69921875" style="89" customWidth="1"/>
+    <col min="10244" max="10244" width="20.5" style="89" customWidth="1"/>
+    <col min="10245" max="10245" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10496" width="8.09765625" style="89"/>
+    <col min="10497" max="10497" width="8.5" style="89" customWidth="1"/>
+    <col min="10498" max="10498" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="46.69921875" style="89" customWidth="1"/>
+    <col min="10500" max="10500" width="20.5" style="89" customWidth="1"/>
+    <col min="10501" max="10501" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10752" width="8.09765625" style="89"/>
+    <col min="10753" max="10753" width="8.5" style="89" customWidth="1"/>
+    <col min="10754" max="10754" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="46.69921875" style="89" customWidth="1"/>
+    <col min="10756" max="10756" width="20.5" style="89" customWidth="1"/>
+    <col min="10757" max="10757" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11008" width="8.09765625" style="89"/>
+    <col min="11009" max="11009" width="8.5" style="89" customWidth="1"/>
+    <col min="11010" max="11010" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="46.69921875" style="89" customWidth="1"/>
+    <col min="11012" max="11012" width="20.5" style="89" customWidth="1"/>
+    <col min="11013" max="11013" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11264" width="8.09765625" style="89"/>
+    <col min="11265" max="11265" width="8.5" style="89" customWidth="1"/>
+    <col min="11266" max="11266" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="46.69921875" style="89" customWidth="1"/>
+    <col min="11268" max="11268" width="20.5" style="89" customWidth="1"/>
+    <col min="11269" max="11269" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11520" width="8.09765625" style="89"/>
+    <col min="11521" max="11521" width="8.5" style="89" customWidth="1"/>
+    <col min="11522" max="11522" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="46.69921875" style="89" customWidth="1"/>
+    <col min="11524" max="11524" width="20.5" style="89" customWidth="1"/>
+    <col min="11525" max="11525" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11776" width="8.09765625" style="89"/>
+    <col min="11777" max="11777" width="8.5" style="89" customWidth="1"/>
+    <col min="11778" max="11778" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="46.69921875" style="89" customWidth="1"/>
+    <col min="11780" max="11780" width="20.5" style="89" customWidth="1"/>
+    <col min="11781" max="11781" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12032" width="8.09765625" style="89"/>
+    <col min="12033" max="12033" width="8.5" style="89" customWidth="1"/>
+    <col min="12034" max="12034" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="46.69921875" style="89" customWidth="1"/>
+    <col min="12036" max="12036" width="20.5" style="89" customWidth="1"/>
+    <col min="12037" max="12037" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12288" width="8.09765625" style="89"/>
+    <col min="12289" max="12289" width="8.5" style="89" customWidth="1"/>
+    <col min="12290" max="12290" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="46.69921875" style="89" customWidth="1"/>
+    <col min="12292" max="12292" width="20.5" style="89" customWidth="1"/>
+    <col min="12293" max="12293" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12544" width="8.09765625" style="89"/>
+    <col min="12545" max="12545" width="8.5" style="89" customWidth="1"/>
+    <col min="12546" max="12546" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="46.69921875" style="89" customWidth="1"/>
+    <col min="12548" max="12548" width="20.5" style="89" customWidth="1"/>
+    <col min="12549" max="12549" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12800" width="8.09765625" style="89"/>
+    <col min="12801" max="12801" width="8.5" style="89" customWidth="1"/>
+    <col min="12802" max="12802" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="46.69921875" style="89" customWidth="1"/>
+    <col min="12804" max="12804" width="20.5" style="89" customWidth="1"/>
+    <col min="12805" max="12805" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13056" width="8.09765625" style="89"/>
+    <col min="13057" max="13057" width="8.5" style="89" customWidth="1"/>
+    <col min="13058" max="13058" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="46.69921875" style="89" customWidth="1"/>
+    <col min="13060" max="13060" width="20.5" style="89" customWidth="1"/>
+    <col min="13061" max="13061" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13312" width="8.09765625" style="89"/>
+    <col min="13313" max="13313" width="8.5" style="89" customWidth="1"/>
+    <col min="13314" max="13314" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="46.69921875" style="89" customWidth="1"/>
+    <col min="13316" max="13316" width="20.5" style="89" customWidth="1"/>
+    <col min="13317" max="13317" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13568" width="8.09765625" style="89"/>
+    <col min="13569" max="13569" width="8.5" style="89" customWidth="1"/>
+    <col min="13570" max="13570" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="46.69921875" style="89" customWidth="1"/>
+    <col min="13572" max="13572" width="20.5" style="89" customWidth="1"/>
+    <col min="13573" max="13573" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13824" width="8.09765625" style="89"/>
+    <col min="13825" max="13825" width="8.5" style="89" customWidth="1"/>
+    <col min="13826" max="13826" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="46.69921875" style="89" customWidth="1"/>
+    <col min="13828" max="13828" width="20.5" style="89" customWidth="1"/>
+    <col min="13829" max="13829" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14080" width="8.09765625" style="89"/>
+    <col min="14081" max="14081" width="8.5" style="89" customWidth="1"/>
+    <col min="14082" max="14082" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="46.69921875" style="89" customWidth="1"/>
+    <col min="14084" max="14084" width="20.5" style="89" customWidth="1"/>
+    <col min="14085" max="14085" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14336" width="8.09765625" style="89"/>
+    <col min="14337" max="14337" width="8.5" style="89" customWidth="1"/>
+    <col min="14338" max="14338" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="46.69921875" style="89" customWidth="1"/>
+    <col min="14340" max="14340" width="20.5" style="89" customWidth="1"/>
+    <col min="14341" max="14341" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14592" width="8.09765625" style="89"/>
+    <col min="14593" max="14593" width="8.5" style="89" customWidth="1"/>
+    <col min="14594" max="14594" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="46.69921875" style="89" customWidth="1"/>
+    <col min="14596" max="14596" width="20.5" style="89" customWidth="1"/>
+    <col min="14597" max="14597" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14848" width="8.09765625" style="89"/>
+    <col min="14849" max="14849" width="8.5" style="89" customWidth="1"/>
+    <col min="14850" max="14850" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="46.69921875" style="89" customWidth="1"/>
+    <col min="14852" max="14852" width="20.5" style="89" customWidth="1"/>
+    <col min="14853" max="14853" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15104" width="8.09765625" style="89"/>
+    <col min="15105" max="15105" width="8.5" style="89" customWidth="1"/>
+    <col min="15106" max="15106" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="46.69921875" style="89" customWidth="1"/>
+    <col min="15108" max="15108" width="20.5" style="89" customWidth="1"/>
+    <col min="15109" max="15109" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15360" width="8.09765625" style="89"/>
+    <col min="15361" max="15361" width="8.5" style="89" customWidth="1"/>
+    <col min="15362" max="15362" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="46.69921875" style="89" customWidth="1"/>
+    <col min="15364" max="15364" width="20.5" style="89" customWidth="1"/>
+    <col min="15365" max="15365" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15616" width="8.09765625" style="89"/>
+    <col min="15617" max="15617" width="8.5" style="89" customWidth="1"/>
+    <col min="15618" max="15618" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="46.69921875" style="89" customWidth="1"/>
+    <col min="15620" max="15620" width="20.5" style="89" customWidth="1"/>
+    <col min="15621" max="15621" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15872" width="8.09765625" style="89"/>
+    <col min="15873" max="15873" width="8.5" style="89" customWidth="1"/>
+    <col min="15874" max="15874" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="46.69921875" style="89" customWidth="1"/>
+    <col min="15876" max="15876" width="20.5" style="89" customWidth="1"/>
+    <col min="15877" max="15877" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16128" width="8.09765625" style="89"/>
+    <col min="16129" max="16129" width="8.5" style="89" customWidth="1"/>
+    <col min="16130" max="16130" width="4.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="46.69921875" style="89" customWidth="1"/>
+    <col min="16132" max="16132" width="20.5" style="89" customWidth="1"/>
+    <col min="16133" max="16133" width="9.69921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="16.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="8.09765625" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="90" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="132" t="s">
+      <c r="D4" s="90" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="133" t="s">
+      <c r="E4" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="F4" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="133" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="26.4">
+      <c r="A5" s="91">
+        <v>6</v>
+      </c>
+      <c r="B5" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="C5" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="133" t="s">
+      <c r="D5" s="93"/>
+      <c r="E5" s="91">
+        <v>1234</v>
+      </c>
+      <c r="F5" s="94">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="54">
+      <c r="A6" s="91">
+        <v>9</v>
+      </c>
+      <c r="B6" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="C6" s="95" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.4">
-      <c r="A5" s="134">
-        <v>6</v>
-      </c>
-      <c r="B5" s="134" t="s">
+      <c r="D6" s="93"/>
+      <c r="E6" s="91">
+        <v>1234</v>
+      </c>
+      <c r="F6" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="135" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="134">
+      <c r="B7" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="97">
+        <v>1234.5</v>
+      </c>
+      <c r="F7" s="98">
+        <v>1234.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="152"/>
+      <c r="B8" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100">
         <v>1234</v>
       </c>
-      <c r="F5" s="137">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54">
-      <c r="A6" s="134">
-        <v>9</v>
-      </c>
-      <c r="B6" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="134">
-        <v>1234</v>
-      </c>
-      <c r="F6" s="139" t="s">
+      <c r="F8" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="140" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" s="101"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="135" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="39.6">
+      <c r="A13" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="141">
-        <v>1234.5</v>
-      </c>
-      <c r="F7" s="142">
-        <v>1234.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="143"/>
-      <c r="B8" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="135" t="s">
+      <c r="B13" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145">
-        <v>1234</v>
-      </c>
-      <c r="F8" s="145" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="146"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="132" t="s">
+      <c r="F13" s="102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39.6">
+      <c r="A14" s="91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="133" t="s">
+      <c r="B14" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="93"/>
+      <c r="E14" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="133" t="s">
+      <c r="F17" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="133" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="39.6">
-      <c r="A13" s="134" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="134" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="26.4">
+      <c r="A18" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="147" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="39.6">
-      <c r="A14" s="134" t="s">
+      <c r="B18" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="135" t="s">
+      <c r="C18" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="147" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="132" t="s">
+      <c r="D18" s="93"/>
+      <c r="E18" s="100" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="133" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="133" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="133" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="26.4">
-      <c r="A18" s="134" t="s">
+      <c r="F18" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="134" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="26.4">
+      <c r="A19" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="B19" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="145" t="s">
+      <c r="C19" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="147" t="s">
+      <c r="D19" s="93"/>
+      <c r="E19" s="100" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="26.4">
-      <c r="A19" s="134" t="s">
+      <c r="F19" s="103">
+        <v>0.79484953703703709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26.4">
+      <c r="A20" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B20" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="D20" s="93"/>
+      <c r="E20" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="104">
+        <v>0.79484953703703709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="145" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="148">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="26.4">
-      <c r="A20" s="134" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="134" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="135" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="149">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="132" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="132" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="146"/>
+      <c r="B25" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11235,6 +10467,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>